--- a/exports/yield_files/LU 6.xlsx
+++ b/exports/yield_files/LU 6.xlsx
@@ -675,11 +675,21 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
+      <c r="O2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1577.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12.3</v>
+      </c>
       <c r="T2"/>
       <c r="U2" t="n">
         <v>55.5</v>
@@ -724,11 +734,21 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
+      <c r="O3" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.65</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2488.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12.1</v>
+      </c>
       <c r="T3"/>
       <c r="U3" t="n">
         <v>55.1</v>
@@ -769,11 +789,21 @@
         <v>31</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="O4" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2000.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11.8</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>55.2</v>
@@ -815,7 +845,9 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>2078.2</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
@@ -861,11 +893,21 @@
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
+      <c r="O6" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>45.09</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>67.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2059.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T6"/>
       <c r="U6" t="n">
         <v>56.2</v>
@@ -910,11 +952,21 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
+      <c r="O7" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="P7" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2204.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15.7</v>
+      </c>
       <c r="T7"/>
       <c r="U7" t="n">
         <v>55.7</v>
@@ -955,11 +1007,21 @@
         <v>36</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="O8" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P8" t="n">
+        <v>44.56</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2237</v>
+      </c>
+      <c r="S8" t="n">
+        <v>16</v>
+      </c>
       <c r="T8"/>
       <c r="U8" t="n">
         <v>56.3</v>
@@ -1001,7 +1063,9 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="n">
+        <v>1697.9</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
@@ -1047,11 +1111,21 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+      <c r="O10" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="P10" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1739.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T10"/>
       <c r="U10" t="n">
         <v>54.8</v>
@@ -1096,11 +1170,21 @@
       <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
+      <c r="O11" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P11" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2154.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T11"/>
       <c r="U11" t="n">
         <v>54.2</v>
@@ -1141,11 +1225,21 @@
         <v>42</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="O12" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>68.96</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2283.3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>17.2</v>
+      </c>
       <c r="T12"/>
       <c r="U12" t="n">
         <v>54.7</v>
@@ -1187,7 +1281,9 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="n">
+        <v>2208.5</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
@@ -1233,11 +1329,21 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
+      <c r="O14" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="P14" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>66.27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>920.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T14"/>
       <c r="U14" t="n">
         <v>54.9</v>
@@ -1282,11 +1388,21 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
+      <c r="O15" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>67.04</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1937.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T15"/>
       <c r="U15" t="n">
         <v>55.8</v>
@@ -1327,11 +1443,21 @@
         <v>36</v>
       </c>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="O16" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="P16" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2300.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T16"/>
       <c r="U16" t="n">
         <v>54.6</v>
@@ -1373,7 +1499,9 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" t="n">
+        <v>1668.8</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17" t="n">
@@ -1421,11 +1549,21 @@
       <c r="N18" t="n">
         <v>1.5</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
+      <c r="O18" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="R18" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.1</v>
+      </c>
       <c r="T18"/>
       <c r="U18" t="n">
         <v>39.4</v>
@@ -1470,11 +1608,21 @@
       <c r="N19" t="n">
         <v>1.5</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
+      <c r="O19" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1370.4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T19"/>
       <c r="U19" t="n">
         <v>55.9</v>
@@ -1515,11 +1663,21 @@
         <v>38</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="O20" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>66.32</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2107.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>56.4</v>
@@ -1561,7 +1719,9 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
+      <c r="R21" t="n">
+        <v>1683.5</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="n">
@@ -1607,11 +1767,21 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
+      <c r="O22" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>62.34</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1519.1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T22"/>
       <c r="U22" t="n">
         <v>54.2</v>
@@ -1656,10 +1826,18 @@
       <c r="N23" t="n">
         <v>1.5</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
+      <c r="O23" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="P23" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>64.18</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2599.5</v>
+      </c>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23" t="n">
@@ -1701,11 +1879,21 @@
         <v>40</v>
       </c>
       <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="O24" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2563.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15.9</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>54.2</v>
@@ -1747,8 +1935,12 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
+      <c r="R25" t="n">
+        <v>2472.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>16.3</v>
+      </c>
       <c r="T25"/>
       <c r="U25" t="n">
         <v>54.3</v>
@@ -1793,11 +1985,21 @@
       <c r="N26" t="n">
         <v>2.5</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
+      <c r="O26" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="P26" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2067.4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>18.6</v>
+      </c>
       <c r="T26"/>
       <c r="U26" t="n">
         <v>55.8</v>
@@ -1842,11 +2044,21 @@
       <c r="N27" t="n">
         <v>2</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
+      <c r="O27" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="P27" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2272.9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>18.6</v>
+      </c>
       <c r="T27"/>
       <c r="U27" t="n">
         <v>55.4</v>
@@ -1887,11 +2099,21 @@
         <v>37</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="O28" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="P28" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>66.54</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2407.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>19.1</v>
+      </c>
       <c r="T28"/>
       <c r="U28" t="n">
         <v>55.8</v>
@@ -1933,7 +2155,9 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="n">
+        <v>1852.5</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
@@ -1979,11 +2203,21 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
+      <c r="O30" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="P30" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>65.48</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2021.9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>16.4</v>
+      </c>
       <c r="T30"/>
       <c r="U30" t="n">
         <v>56.1</v>
@@ -2028,11 +2262,21 @@
       <c r="N31" t="n">
         <v>1.5</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
+      <c r="O31" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="P31" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2412.9</v>
+      </c>
+      <c r="S31" t="n">
+        <v>16.5</v>
+      </c>
       <c r="T31"/>
       <c r="U31" t="n">
         <v>56</v>
@@ -2073,11 +2317,21 @@
         <v>40</v>
       </c>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="O32" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="P32" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2571.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>17.2</v>
+      </c>
       <c r="T32"/>
       <c r="U32" t="n">
         <v>55.5</v>
@@ -2119,7 +2373,9 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
+      <c r="R33" t="n">
+        <v>2085</v>
+      </c>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33" t="n">
@@ -2165,11 +2421,21 @@
       <c r="N34" t="n">
         <v>1.5</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="O34" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="P34" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2008.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T34"/>
       <c r="U34" t="n">
         <v>54.9</v>
@@ -2214,11 +2480,21 @@
       <c r="N35" t="n">
         <v>1.5</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
+      <c r="O35" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="P35" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>65.68</v>
+      </c>
+      <c r="R35" t="n">
+        <v>894</v>
+      </c>
+      <c r="S35" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T35"/>
       <c r="U35" t="n">
         <v>55.2</v>
@@ -2259,11 +2535,21 @@
         <v>38</v>
       </c>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="O36" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="P36" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2289.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T36"/>
       <c r="U36" t="n">
         <v>54.3</v>
@@ -2305,7 +2591,9 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="n">
+        <v>1938.6</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="n">
@@ -2351,11 +2639,21 @@
       <c r="N38" t="n">
         <v>1.5</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
+      <c r="O38" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P38" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>64.45</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1820.8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T38"/>
       <c r="U38" t="n">
         <v>55.4</v>
@@ -2400,11 +2698,21 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
+      <c r="O39" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="P39" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>65.45</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2249.2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T39"/>
       <c r="U39" t="n">
         <v>54.1</v>
@@ -2445,11 +2753,21 @@
         <v>35</v>
       </c>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="O40" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="P40" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>66.07</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2613.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>54.9</v>
@@ -2491,7 +2809,9 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
+      <c r="R41" t="n">
+        <v>2331.3</v>
+      </c>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="n">
@@ -2537,11 +2857,21 @@
       <c r="N42" t="n">
         <v>1.5</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
+      <c r="O42" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="P42" t="n">
+        <v>43.46</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>16.5</v>
+      </c>
       <c r="T42"/>
       <c r="U42" t="n">
         <v>56.6</v>
@@ -2629,11 +2959,21 @@
         <v>34</v>
       </c>
       <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="O44" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P44" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2121.1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>16.3</v>
+      </c>
       <c r="T44"/>
       <c r="U44" t="n">
         <v>56.9</v>
@@ -2675,7 +3015,9 @@
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
+      <c r="R45" t="n">
+        <v>2225.2</v>
+      </c>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
@@ -2721,11 +3063,21 @@
       <c r="N46" t="n">
         <v>1.5</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
+      <c r="O46" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="P46" t="n">
+        <v>46.42</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2009.3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>16.5</v>
+      </c>
       <c r="T46"/>
       <c r="U46" t="n">
         <v>57.2</v>
@@ -2770,11 +3122,21 @@
       <c r="N47" t="n">
         <v>1.5</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
+      <c r="O47" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="P47" t="n">
+        <v>47.24</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2586.4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>16.7</v>
+      </c>
       <c r="T47"/>
       <c r="U47" t="n">
         <v>56.8</v>
@@ -2815,11 +3177,21 @@
         <v>34</v>
       </c>
       <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
+      <c r="O48" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="P48" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2238.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>16.2</v>
+      </c>
       <c r="T48"/>
       <c r="U48" t="n">
         <v>57.1</v>
@@ -2861,7 +3233,9 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="n">
+        <v>1731.6</v>
+      </c>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="n">
@@ -2907,11 +3281,21 @@
       <c r="N50" t="n">
         <v>1.5</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
+      <c r="O50" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="P50" t="n">
+        <v>44.08</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1904</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14.4</v>
+      </c>
       <c r="T50"/>
       <c r="U50" t="n">
         <v>59.5</v>
@@ -2956,11 +3340,21 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
+      <c r="O51" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P51" t="n">
+        <v>45.89</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2076.9</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T51"/>
       <c r="U51" t="n">
         <v>58.6</v>
@@ -3001,11 +3395,21 @@
         <v>39</v>
       </c>
       <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="O52" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="P52" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2260.8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>58.2</v>
@@ -3047,7 +3451,9 @@
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="n">
+        <v>2623.7</v>
+      </c>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="n">
@@ -3093,11 +3499,21 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
+      <c r="O54" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1046.8</v>
+      </c>
+      <c r="S54" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T54"/>
       <c r="U54" t="n">
         <v>57.7</v>
@@ -3142,11 +3558,21 @@
       <c r="N55" t="n">
         <v>1.5</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
+      <c r="O55" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="P55" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>68.26</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2087.1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>14</v>
+      </c>
       <c r="T55"/>
       <c r="U55" t="n">
         <v>56.6</v>
@@ -3187,11 +3613,21 @@
         <v>34</v>
       </c>
       <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="O56" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P56" t="n">
+        <v>45.65</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>68.71</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2237.6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>14</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>57.2</v>
@@ -3233,7 +3669,9 @@
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
+      <c r="R57" t="n">
+        <v>2002.6</v>
+      </c>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57" t="n">
@@ -3279,11 +3717,21 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
+      <c r="O58" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="P58" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>64</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1508.7</v>
+      </c>
+      <c r="S58" t="n">
+        <v>11.3</v>
+      </c>
       <c r="T58"/>
       <c r="U58" t="n">
         <v>57.8</v>
@@ -3328,11 +3776,21 @@
       <c r="N59" t="n">
         <v>1.5</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
+      <c r="O59" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>65.48</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1864.2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11.6</v>
+      </c>
       <c r="T59"/>
       <c r="U59" t="n">
         <v>58.5</v>
@@ -3373,11 +3831,21 @@
         <v>38</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
+      <c r="O60" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="P60" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>65.34</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2226</v>
+      </c>
+      <c r="S60" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T60"/>
       <c r="U60" t="n">
         <v>59</v>
@@ -3419,7 +3887,9 @@
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
+      <c r="R61" t="n">
+        <v>2063.2</v>
+      </c>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61" t="n">
@@ -3465,11 +3935,21 @@
       <c r="N62" t="n">
         <v>1.5</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
+      <c r="O62" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="P62" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2425.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T62"/>
       <c r="U62" t="n">
         <v>56.5</v>
@@ -3514,11 +3994,21 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
+      <c r="O63" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="P63" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>64.27</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2167.7</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T63"/>
       <c r="U63" t="n">
         <v>55.9</v>
@@ -3559,11 +4049,21 @@
         <v>36</v>
       </c>
       <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="O64" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="P64" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>64.6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2477.1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>55.4</v>
@@ -3605,7 +4105,9 @@
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
+      <c r="R65" t="n">
+        <v>2393.1</v>
+      </c>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65" t="n">
@@ -3653,11 +4155,21 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
+      <c r="O66" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1609.9</v>
+      </c>
+      <c r="S66" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T66"/>
       <c r="U66" t="n">
         <v>55.6</v>
@@ -3702,11 +4214,21 @@
       <c r="N67" t="n">
         <v>1.5</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
+      <c r="O67" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="P67" t="n">
+        <v>44.34</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2293.3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T67"/>
       <c r="U67" t="n">
         <v>55.5</v>
@@ -3747,11 +4269,21 @@
         <v>28</v>
       </c>
       <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
+      <c r="O68" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="P68" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>66.54</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2246.1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>15</v>
+      </c>
       <c r="T68"/>
       <c r="U68" t="n">
         <v>55.5</v>
@@ -3793,7 +4325,9 @@
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
+      <c r="R69" t="n">
+        <v>2284.5</v>
+      </c>
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69" t="n">
@@ -3839,11 +4373,21 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
+      <c r="O70" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="P70" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1741.6</v>
+      </c>
+      <c r="S70" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T70"/>
       <c r="U70" t="n">
         <v>55.8</v>
@@ -3888,11 +4432,21 @@
       <c r="N71" t="n">
         <v>1.5</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
+      <c r="O71" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2271</v>
+      </c>
+      <c r="S71" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T71"/>
       <c r="U71" t="n">
         <v>55.1</v>
@@ -3933,11 +4487,21 @@
         <v>34</v>
       </c>
       <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
+      <c r="O72" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="P72" t="n">
+        <v>40.72</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2177.3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T72"/>
       <c r="U72" t="n">
         <v>55.4</v>
@@ -3979,7 +4543,9 @@
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
+      <c r="R73" t="n">
+        <v>2090.5</v>
+      </c>
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73" t="n">
@@ -4025,11 +4591,21 @@
       <c r="N74" t="n">
         <v>1.5</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
+      <c r="O74" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="P74" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1851.8</v>
+      </c>
+      <c r="S74" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T74"/>
       <c r="U74" t="n">
         <v>56.4</v>
@@ -4074,11 +4650,21 @@
       <c r="N75" t="n">
         <v>1.5</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
+      <c r="O75" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="P75" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>66.87</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2217.2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T75"/>
       <c r="U75" t="n">
         <v>55.5</v>
@@ -4119,11 +4705,21 @@
         <v>40</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
+      <c r="O76" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P76" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>67.77</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2454.4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>15.8</v>
+      </c>
       <c r="T76"/>
       <c r="U76" t="n">
         <v>55.6</v>
@@ -4165,7 +4761,9 @@
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
+      <c r="R77" t="n">
+        <v>2181.8</v>
+      </c>
       <c r="S77"/>
       <c r="T77"/>
       <c r="U77" t="n">
@@ -4211,11 +4809,21 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
+      <c r="O78" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="P78" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2432.9</v>
+      </c>
+      <c r="S78" t="n">
+        <v>16.7</v>
+      </c>
       <c r="T78"/>
       <c r="U78" t="n">
         <v>55.6</v>
@@ -4260,11 +4868,21 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
+      <c r="O79" t="n">
+        <v>22</v>
+      </c>
+      <c r="P79" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2539.1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>16.5</v>
+      </c>
       <c r="T79"/>
       <c r="U79" t="n">
         <v>55.3</v>
@@ -4305,11 +4923,21 @@
         <v>36</v>
       </c>
       <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
+      <c r="O80" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P80" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2395.2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>16.8</v>
+      </c>
       <c r="T80"/>
       <c r="U80" t="n">
         <v>54.7</v>
@@ -4351,7 +4979,9 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
+      <c r="R81" t="n">
+        <v>2101</v>
+      </c>
       <c r="S81"/>
       <c r="T81"/>
       <c r="U81" t="n">
@@ -4397,11 +5027,21 @@
       <c r="N82" t="n">
         <v>1.5</v>
       </c>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
+      <c r="O82" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="P82" t="n">
+        <v>40.87</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>64.6</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1043</v>
+      </c>
+      <c r="S82" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T82"/>
       <c r="U82" t="n">
         <v>57.1</v>
@@ -4446,11 +5086,21 @@
       <c r="N83" t="n">
         <v>1</v>
       </c>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
+      <c r="O83" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="P83" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>66.26</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T83"/>
       <c r="U83" t="n">
         <v>56.1</v>
@@ -4491,11 +5141,21 @@
         <v>39</v>
       </c>
       <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
+      <c r="O84" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="P84" t="n">
+        <v>42.47</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>66.24</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2528.6</v>
+      </c>
+      <c r="S84" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T84"/>
       <c r="U84" t="n">
         <v>56.2</v>
@@ -4537,7 +5197,9 @@
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85"/>
+      <c r="R85" t="n">
+        <v>2098.1</v>
+      </c>
       <c r="S85"/>
       <c r="T85"/>
       <c r="U85" t="n">
@@ -4583,11 +5245,21 @@
       <c r="N86" t="n">
         <v>1.5</v>
       </c>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
+      <c r="O86" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="P86" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2442</v>
+      </c>
+      <c r="S86" t="n">
+        <v>17.1</v>
+      </c>
       <c r="T86"/>
       <c r="U86" t="n">
         <v>54.8</v>
@@ -4632,11 +5304,21 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
+      <c r="O87" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="P87" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>66.05</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2014.5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>16.8</v>
+      </c>
       <c r="T87"/>
       <c r="U87" t="n">
         <v>55.6</v>
@@ -4677,11 +5359,21 @@
         <v>34</v>
       </c>
       <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
+      <c r="O88" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="P88" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2192.2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>16.8</v>
+      </c>
       <c r="T88"/>
       <c r="U88" t="n">
         <v>54.3</v>
@@ -4723,7 +5415,9 @@
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
-      <c r="R89"/>
+      <c r="R89" t="n">
+        <v>1628</v>
+      </c>
       <c r="S89"/>
       <c r="T89"/>
       <c r="U89" t="n">
@@ -4771,11 +5465,21 @@
       <c r="N90" t="n">
         <v>1.5</v>
       </c>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
+      <c r="O90" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P90" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>66.46</v>
+      </c>
+      <c r="R90" t="n">
+        <v>537.1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>15</v>
+      </c>
       <c r="T90"/>
       <c r="U90" t="n">
         <v>56.2</v>
@@ -4820,11 +5524,21 @@
       <c r="N91" t="n">
         <v>1</v>
       </c>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
+      <c r="O91" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="P91" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1985.7</v>
+      </c>
+      <c r="S91" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T91"/>
       <c r="U91" t="n">
         <v>55.9</v>
@@ -4865,11 +5579,21 @@
         <v>33</v>
       </c>
       <c r="N92"/>
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
-      <c r="R92"/>
-      <c r="S92"/>
+      <c r="O92" t="n">
+        <v>25</v>
+      </c>
+      <c r="P92" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1678.3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T92"/>
       <c r="U92" t="n">
         <v>55.4</v>
@@ -4911,7 +5635,9 @@
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
-      <c r="R93"/>
+      <c r="R93" t="n">
+        <v>2385.9</v>
+      </c>
       <c r="S93"/>
       <c r="T93"/>
       <c r="U93" t="n">
@@ -4957,11 +5683,21 @@
       <c r="N94" t="n">
         <v>1.5</v>
       </c>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
-      <c r="R94"/>
-      <c r="S94"/>
+      <c r="O94" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="P94" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>67.24</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1666.8</v>
+      </c>
+      <c r="S94" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T94"/>
       <c r="U94" t="n">
         <v>55.2</v>
@@ -5006,11 +5742,21 @@
       <c r="N95" t="n">
         <v>1.5</v>
       </c>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
-      <c r="R95"/>
-      <c r="S95"/>
+      <c r="O95" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="P95" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>67.72</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1502.9</v>
+      </c>
+      <c r="S95" t="n">
+        <v>14</v>
+      </c>
       <c r="T95"/>
       <c r="U95" t="n">
         <v>55.1</v>
@@ -5051,11 +5797,21 @@
         <v>32</v>
       </c>
       <c r="N96"/>
-      <c r="O96"/>
-      <c r="P96"/>
-      <c r="Q96"/>
-      <c r="R96"/>
-      <c r="S96"/>
+      <c r="O96" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="P96" t="n">
+        <v>44.93</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>68.45</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2784.5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>15.1</v>
+      </c>
       <c r="T96"/>
       <c r="U96" t="n">
         <v>54.9</v>
@@ -5097,7 +5853,9 @@
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
-      <c r="R97"/>
+      <c r="R97" t="n">
+        <v>2533.4</v>
+      </c>
       <c r="S97"/>
       <c r="T97"/>
       <c r="U97" t="n">
@@ -5143,11 +5901,21 @@
       <c r="N98" t="n">
         <v>1.5</v>
       </c>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
-      <c r="R98"/>
-      <c r="S98"/>
+      <c r="O98" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="P98" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>67.64</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2372.8</v>
+      </c>
+      <c r="S98" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T98"/>
       <c r="U98" t="n">
         <v>56.1</v>
@@ -5192,11 +5960,21 @@
       <c r="N99" t="n">
         <v>1.5</v>
       </c>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
-      <c r="R99"/>
-      <c r="S99"/>
+      <c r="O99" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P99" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2287.1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T99"/>
       <c r="U99" t="n">
         <v>55.5</v>
@@ -5237,11 +6015,21 @@
         <v>34</v>
       </c>
       <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
-      <c r="R100"/>
-      <c r="S100"/>
+      <c r="O100" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="P100" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>68.01</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2239.4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T100"/>
       <c r="U100" t="n">
         <v>55.3</v>
@@ -5283,7 +6071,9 @@
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
-      <c r="R101"/>
+      <c r="R101" t="n">
+        <v>1592.8</v>
+      </c>
       <c r="S101"/>
       <c r="T101"/>
       <c r="U101" t="n">
@@ -5329,11 +6119,21 @@
       <c r="N102" t="n">
         <v>2</v>
       </c>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
-      <c r="R102"/>
-      <c r="S102"/>
+      <c r="O102" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="P102" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>66</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2576.9</v>
+      </c>
+      <c r="S102" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T102"/>
       <c r="U102" t="n">
         <v>56.7</v>
@@ -5378,11 +6178,21 @@
       <c r="N103" t="n">
         <v>1.5</v>
       </c>
-      <c r="O103"/>
-      <c r="P103"/>
-      <c r="Q103"/>
-      <c r="R103"/>
-      <c r="S103"/>
+      <c r="O103" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="P103" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>65.74</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2496.5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T103"/>
       <c r="U103" t="n">
         <v>56.2</v>
@@ -5423,11 +6233,21 @@
         <v>39</v>
       </c>
       <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
-      <c r="Q104"/>
-      <c r="R104"/>
-      <c r="S104"/>
+      <c r="O104" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P104" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>66.85</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2477.2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>14.3</v>
+      </c>
       <c r="T104"/>
       <c r="U104" t="n">
         <v>56.3</v>
@@ -5469,7 +6289,9 @@
       <c r="O105"/>
       <c r="P105"/>
       <c r="Q105"/>
-      <c r="R105"/>
+      <c r="R105" t="n">
+        <v>2617.1</v>
+      </c>
       <c r="S105"/>
       <c r="T105"/>
       <c r="U105" t="n">
@@ -5515,11 +6337,21 @@
       <c r="N106" t="n">
         <v>2</v>
       </c>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
-      <c r="R106"/>
-      <c r="S106"/>
+      <c r="O106" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P106" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>66.07</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2393.8</v>
+      </c>
+      <c r="S106" t="n">
+        <v>14.4</v>
+      </c>
       <c r="T106"/>
       <c r="U106" t="n">
         <v>58.1</v>
@@ -5564,11 +6396,21 @@
       <c r="N107" t="n">
         <v>2</v>
       </c>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
+      <c r="O107" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="P107" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1901.6</v>
+      </c>
+      <c r="S107" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T107"/>
       <c r="U107" t="n">
         <v>58.5</v>
@@ -5609,11 +6451,21 @@
         <v>38</v>
       </c>
       <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108"/>
+      <c r="O108" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="P108" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1951.6</v>
+      </c>
+      <c r="S108" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T108"/>
       <c r="U108" t="n">
         <v>57.7</v>
@@ -5655,7 +6507,9 @@
       <c r="O109"/>
       <c r="P109"/>
       <c r="Q109"/>
-      <c r="R109"/>
+      <c r="R109" t="n">
+        <v>2106.9</v>
+      </c>
       <c r="S109"/>
       <c r="T109"/>
       <c r="U109" t="n">
@@ -5701,11 +6555,21 @@
       <c r="N110" t="n">
         <v>1</v>
       </c>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
+      <c r="O110" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="P110" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2467.2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T110"/>
       <c r="U110" t="n">
         <v>56.5</v>
@@ -5750,11 +6614,21 @@
       <c r="N111" t="n">
         <v>1.5</v>
       </c>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
+      <c r="O111" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="P111" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>64.12</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2640.3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13.8</v>
+      </c>
       <c r="T111"/>
       <c r="U111" t="n">
         <v>56.1</v>
@@ -5795,11 +6669,21 @@
         <v>36</v>
       </c>
       <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
-      <c r="R112"/>
-      <c r="S112"/>
+      <c r="O112" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="P112" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>64.82</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2428.9</v>
+      </c>
+      <c r="S112" t="n">
+        <v>13</v>
+      </c>
       <c r="T112"/>
       <c r="U112" t="n">
         <v>56.1</v>
@@ -5841,7 +6725,9 @@
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113"/>
-      <c r="R113"/>
+      <c r="R113" t="n">
+        <v>1636.3</v>
+      </c>
       <c r="S113"/>
       <c r="T113"/>
       <c r="U113" t="n">
@@ -5887,11 +6773,21 @@
       <c r="N114" t="n">
         <v>1.5</v>
       </c>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
-      <c r="R114"/>
-      <c r="S114"/>
+      <c r="O114" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="P114" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2517</v>
+      </c>
+      <c r="S114" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T114"/>
       <c r="U114" t="n">
         <v>55.8</v>
@@ -5936,11 +6832,21 @@
       <c r="N115" t="n">
         <v>1.5</v>
       </c>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
-      <c r="R115"/>
-      <c r="S115"/>
+      <c r="O115" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="P115" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2533.8</v>
+      </c>
+      <c r="S115" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T115"/>
       <c r="U115" t="n">
         <v>54.9</v>
@@ -5981,11 +6887,21 @@
         <v>42</v>
       </c>
       <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
-      <c r="R116"/>
-      <c r="S116"/>
+      <c r="O116" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="P116" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2460.6</v>
+      </c>
+      <c r="S116" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T116"/>
       <c r="U116" t="n">
         <v>55.4</v>
@@ -6027,7 +6943,9 @@
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
-      <c r="R117"/>
+      <c r="R117" t="n">
+        <v>2015.1</v>
+      </c>
       <c r="S117"/>
       <c r="T117"/>
       <c r="U117" t="n">
@@ -6073,11 +6991,21 @@
       <c r="N118" t="n">
         <v>1.5</v>
       </c>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
-      <c r="R118"/>
-      <c r="S118"/>
+      <c r="O118" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="P118" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1147.3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>12.3</v>
+      </c>
       <c r="T118"/>
       <c r="U118" t="n">
         <v>57.5</v>
@@ -6122,11 +7050,21 @@
       <c r="N119" t="n">
         <v>2</v>
       </c>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
-      <c r="R119"/>
-      <c r="S119"/>
+      <c r="O119" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="P119" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>64.51</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1993.8</v>
+      </c>
+      <c r="S119" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T119"/>
       <c r="U119" t="n">
         <v>57.5</v>
@@ -6167,11 +7105,21 @@
         <v>41</v>
       </c>
       <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
-      <c r="R120"/>
-      <c r="S120"/>
+      <c r="O120" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P120" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2279.5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T120"/>
       <c r="U120" t="n">
         <v>57</v>
@@ -6213,7 +7161,9 @@
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
-      <c r="R121"/>
+      <c r="R121" t="n">
+        <v>1641.8</v>
+      </c>
       <c r="S121"/>
       <c r="T121"/>
       <c r="U121" t="n">
@@ -6259,11 +7209,21 @@
       <c r="N122" t="n">
         <v>2</v>
       </c>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
-      <c r="R122"/>
-      <c r="S122"/>
+      <c r="O122" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="P122" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>62.04</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1914.2</v>
+      </c>
+      <c r="S122" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T122"/>
       <c r="U122" t="n">
         <v>56.4</v>
@@ -6308,11 +7268,21 @@
       <c r="N123" t="n">
         <v>2</v>
       </c>
-      <c r="O123"/>
-      <c r="P123"/>
-      <c r="Q123"/>
-      <c r="R123"/>
-      <c r="S123"/>
+      <c r="O123" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="P123" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2364.8</v>
+      </c>
+      <c r="S123" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T123"/>
       <c r="U123" t="n">
         <v>56.2</v>
@@ -6353,11 +7323,21 @@
         <v>36</v>
       </c>
       <c r="N124"/>
-      <c r="O124"/>
-      <c r="P124"/>
-      <c r="Q124"/>
-      <c r="R124"/>
-      <c r="S124"/>
+      <c r="O124" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="P124" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>62.36</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2394.8</v>
+      </c>
+      <c r="S124" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T124"/>
       <c r="U124" t="n">
         <v>56.1</v>
@@ -6399,7 +7379,9 @@
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125"/>
-      <c r="R125"/>
+      <c r="R125" t="n">
+        <v>2343.3</v>
+      </c>
       <c r="S125"/>
       <c r="T125"/>
       <c r="U125" t="n">
@@ -6445,11 +7427,21 @@
       <c r="N126" t="n">
         <v>1.5</v>
       </c>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
-      <c r="R126"/>
-      <c r="S126"/>
+      <c r="O126" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="P126" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>65.43</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2151.2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T126"/>
       <c r="U126" t="n">
         <v>56.8</v>
@@ -6494,11 +7486,21 @@
       <c r="N127" t="n">
         <v>1.5</v>
       </c>
-      <c r="O127"/>
-      <c r="P127"/>
-      <c r="Q127"/>
-      <c r="R127"/>
-      <c r="S127"/>
+      <c r="O127" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="P127" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1917</v>
+      </c>
+      <c r="S127" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T127"/>
       <c r="U127" t="n">
         <v>57.2</v>
@@ -6539,11 +7541,21 @@
         <v>40</v>
       </c>
       <c r="N128"/>
-      <c r="O128"/>
-      <c r="P128"/>
-      <c r="Q128"/>
-      <c r="R128"/>
-      <c r="S128"/>
+      <c r="O128" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="P128" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2403.8</v>
+      </c>
+      <c r="S128" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T128"/>
       <c r="U128" t="n">
         <v>57.1</v>
@@ -6585,7 +7597,9 @@
       <c r="O129"/>
       <c r="P129"/>
       <c r="Q129"/>
-      <c r="R129"/>
+      <c r="R129" t="n">
+        <v>2194.4</v>
+      </c>
       <c r="S129"/>
       <c r="T129"/>
       <c r="U129" t="n">
@@ -6631,11 +7645,21 @@
       <c r="N130" t="n">
         <v>1.5</v>
       </c>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
-      <c r="R130"/>
-      <c r="S130"/>
+      <c r="O130" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="P130" t="n">
+        <v>40.31</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2101.6</v>
+      </c>
+      <c r="S130" t="n">
+        <v>13.4</v>
+      </c>
       <c r="T130"/>
       <c r="U130" t="n">
         <v>59.2</v>
@@ -6680,11 +7704,21 @@
       <c r="N131" t="n">
         <v>1.5</v>
       </c>
-      <c r="O131"/>
-      <c r="P131"/>
-      <c r="Q131"/>
-      <c r="R131"/>
-      <c r="S131"/>
+      <c r="O131" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="P131" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2237.8</v>
+      </c>
+      <c r="S131" t="n">
+        <v>12.8</v>
+      </c>
       <c r="T131"/>
       <c r="U131" t="n">
         <v>58</v>
@@ -6725,11 +7759,21 @@
         <v>40</v>
       </c>
       <c r="N132"/>
-      <c r="O132"/>
-      <c r="P132"/>
-      <c r="Q132"/>
-      <c r="R132"/>
-      <c r="S132"/>
+      <c r="O132" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="P132" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>64.09</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2138.4</v>
+      </c>
+      <c r="S132" t="n">
+        <v>13.1</v>
+      </c>
       <c r="T132"/>
       <c r="U132" t="n">
         <v>58</v>
@@ -6771,7 +7815,9 @@
       <c r="O133"/>
       <c r="P133"/>
       <c r="Q133"/>
-      <c r="R133"/>
+      <c r="R133" t="n">
+        <v>2024.1</v>
+      </c>
       <c r="S133"/>
       <c r="T133"/>
       <c r="U133" t="n">
@@ -6817,11 +7863,21 @@
       <c r="N134" t="n">
         <v>2</v>
       </c>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
-      <c r="R134"/>
-      <c r="S134"/>
+      <c r="O134" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="P134" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2150.2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T134"/>
       <c r="U134" t="n">
         <v>56</v>
@@ -6866,11 +7922,21 @@
       <c r="N135" t="n">
         <v>1.5</v>
       </c>
-      <c r="O135"/>
-      <c r="P135"/>
-      <c r="Q135"/>
-      <c r="R135"/>
-      <c r="S135"/>
+      <c r="O135" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P135" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>64.35</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1974.8</v>
+      </c>
+      <c r="S135" t="n">
+        <v>12.9</v>
+      </c>
       <c r="T135"/>
       <c r="U135" t="n">
         <v>56</v>
@@ -6911,11 +7977,21 @@
         <v>42</v>
       </c>
       <c r="N136"/>
-      <c r="O136"/>
-      <c r="P136"/>
-      <c r="Q136"/>
-      <c r="R136"/>
-      <c r="S136"/>
+      <c r="O136" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="P136" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2208.8</v>
+      </c>
+      <c r="S136" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T136"/>
       <c r="U136" t="n">
         <v>55.7</v>
@@ -6957,7 +8033,9 @@
       <c r="O137"/>
       <c r="P137"/>
       <c r="Q137"/>
-      <c r="R137"/>
+      <c r="R137" t="n">
+        <v>2071.5</v>
+      </c>
       <c r="S137"/>
       <c r="T137"/>
       <c r="U137" t="n">
@@ -7003,11 +8081,21 @@
       <c r="N138" t="n">
         <v>1.5</v>
       </c>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
-      <c r="R138"/>
-      <c r="S138"/>
+      <c r="O138" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="P138" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>65.18</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1801.4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>12.7</v>
+      </c>
       <c r="T138"/>
       <c r="U138" t="n">
         <v>57.6</v>
@@ -7052,11 +8140,21 @@
       <c r="N139" t="n">
         <v>2</v>
       </c>
-      <c r="O139"/>
-      <c r="P139"/>
-      <c r="Q139"/>
-      <c r="R139"/>
-      <c r="S139"/>
+      <c r="O139" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="P139" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>65.46</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2117.6</v>
+      </c>
+      <c r="S139" t="n">
+        <v>13.5</v>
+      </c>
       <c r="T139"/>
       <c r="U139" t="n">
         <v>56.7</v>
@@ -7097,11 +8195,21 @@
         <v>35</v>
       </c>
       <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
-      <c r="R140"/>
-      <c r="S140"/>
+      <c r="O140" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="P140" t="n">
+        <v>43.17</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>66.51</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2321.8</v>
+      </c>
+      <c r="S140" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T140"/>
       <c r="U140" t="n">
         <v>56.8</v>
@@ -7143,7 +8251,9 @@
       <c r="O141"/>
       <c r="P141"/>
       <c r="Q141"/>
-      <c r="R141"/>
+      <c r="R141" t="n">
+        <v>2024</v>
+      </c>
       <c r="S141"/>
       <c r="T141"/>
       <c r="U141" t="n">
@@ -7189,11 +8299,21 @@
       <c r="N142" t="n">
         <v>1.5</v>
       </c>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
-      <c r="R142"/>
-      <c r="S142"/>
+      <c r="O142" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="P142" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>64.83</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2433.4</v>
+      </c>
+      <c r="S142" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T142"/>
       <c r="U142" t="n">
         <v>57.5</v>
@@ -7238,11 +8358,21 @@
       <c r="N143" t="n">
         <v>2</v>
       </c>
-      <c r="O143"/>
-      <c r="P143"/>
-      <c r="Q143"/>
-      <c r="R143"/>
-      <c r="S143"/>
+      <c r="O143" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="P143" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2404.2</v>
+      </c>
+      <c r="S143" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T143"/>
       <c r="U143" t="n">
         <v>57.6</v>
@@ -7283,11 +8413,21 @@
         <v>42</v>
       </c>
       <c r="N144"/>
-      <c r="O144"/>
-      <c r="P144"/>
-      <c r="Q144"/>
-      <c r="R144"/>
-      <c r="S144"/>
+      <c r="O144" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="P144" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2189.1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>13.9</v>
+      </c>
       <c r="T144"/>
       <c r="U144" t="n">
         <v>57.2</v>
@@ -7329,7 +8469,9 @@
       <c r="O145"/>
       <c r="P145"/>
       <c r="Q145"/>
-      <c r="R145"/>
+      <c r="R145" t="n">
+        <v>2771.8</v>
+      </c>
       <c r="S145"/>
       <c r="T145"/>
       <c r="U145" t="n">
@@ -7375,11 +8517,21 @@
       <c r="N146" t="n">
         <v>1.5</v>
       </c>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
-      <c r="R146"/>
-      <c r="S146"/>
+      <c r="O146" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="P146" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2076.5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T146"/>
       <c r="U146" t="n">
         <v>55.7</v>
@@ -7424,11 +8576,21 @@
       <c r="N147" t="n">
         <v>1.5</v>
       </c>
-      <c r="O147"/>
-      <c r="P147"/>
-      <c r="Q147"/>
-      <c r="R147"/>
-      <c r="S147"/>
+      <c r="O147" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="P147" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2154</v>
+      </c>
+      <c r="S147" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T147"/>
       <c r="U147" t="n">
         <v>56.3</v>
@@ -7469,11 +8631,21 @@
         <v>38</v>
       </c>
       <c r="N148"/>
-      <c r="O148"/>
-      <c r="P148"/>
-      <c r="Q148"/>
-      <c r="R148"/>
-      <c r="S148"/>
+      <c r="O148" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="P148" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>67.04</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2552.4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T148"/>
       <c r="U148" t="n">
         <v>56.1</v>
@@ -7515,7 +8687,9 @@
       <c r="O149"/>
       <c r="P149"/>
       <c r="Q149"/>
-      <c r="R149"/>
+      <c r="R149" t="n">
+        <v>2144.3</v>
+      </c>
       <c r="S149"/>
       <c r="T149"/>
       <c r="U149" t="n">
@@ -7561,11 +8735,21 @@
       <c r="N150" t="n">
         <v>1</v>
       </c>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
-      <c r="R150"/>
-      <c r="S150"/>
+      <c r="O150" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="P150" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2366.3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>15.4</v>
+      </c>
       <c r="T150"/>
       <c r="U150" t="n">
         <v>54.4</v>
@@ -7610,11 +8794,21 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
-      <c r="R151"/>
-      <c r="S151"/>
+      <c r="O151" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="P151" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>61.83</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2369.4</v>
+      </c>
+      <c r="S151" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T151"/>
       <c r="U151" t="n">
         <v>54.4</v>
@@ -7655,11 +8849,21 @@
         <v>30</v>
       </c>
       <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-      <c r="S152"/>
+      <c r="O152" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="P152" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>63.52</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2414.9</v>
+      </c>
+      <c r="S152" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T152"/>
       <c r="U152" t="n">
         <v>53.8</v>
@@ -7701,7 +8905,9 @@
       <c r="O153"/>
       <c r="P153"/>
       <c r="Q153"/>
-      <c r="R153"/>
+      <c r="R153" t="n">
+        <v>2418</v>
+      </c>
       <c r="S153"/>
       <c r="T153"/>
       <c r="U153" t="n">
@@ -7747,11 +8953,21 @@
       <c r="N154" t="n">
         <v>1</v>
       </c>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
-      <c r="R154"/>
-      <c r="S154"/>
+      <c r="O154" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="P154" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2549.2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
       <c r="T154"/>
       <c r="U154" t="n">
         <v>55.5</v>
@@ -7796,11 +9012,21 @@
       <c r="N155" t="n">
         <v>1</v>
       </c>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
-      <c r="R155"/>
-      <c r="S155"/>
+      <c r="O155" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="P155" t="n">
+        <v>36.41</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2030.7</v>
+      </c>
+      <c r="S155" t="n">
+        <v>10.4</v>
+      </c>
       <c r="T155"/>
       <c r="U155" t="n">
         <v>54.9</v>
@@ -7841,11 +9067,21 @@
         <v>30</v>
       </c>
       <c r="N156"/>
-      <c r="O156"/>
-      <c r="P156"/>
-      <c r="Q156"/>
-      <c r="R156"/>
-      <c r="S156"/>
+      <c r="O156" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="P156" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2139.6</v>
+      </c>
+      <c r="S156" t="n">
+        <v>11.1</v>
+      </c>
       <c r="T156"/>
       <c r="U156" t="n">
         <v>54.9</v>
@@ -7887,7 +9123,9 @@
       <c r="O157"/>
       <c r="P157"/>
       <c r="Q157"/>
-      <c r="R157"/>
+      <c r="R157" t="n">
+        <v>2656.1</v>
+      </c>
       <c r="S157"/>
       <c r="T157"/>
       <c r="U157" t="n">
@@ -7933,11 +9171,21 @@
       <c r="N158" t="n">
         <v>1.5</v>
       </c>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
-      <c r="R158"/>
-      <c r="S158"/>
+      <c r="O158" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="P158" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>62.46</v>
+      </c>
+      <c r="R158" t="n">
+        <v>572.1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T158"/>
       <c r="U158" t="n">
         <v>56.4</v>
@@ -7982,11 +9230,21 @@
       <c r="N159" t="n">
         <v>1</v>
       </c>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
-      <c r="R159"/>
-      <c r="S159"/>
+      <c r="O159" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="P159" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>61.94</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2278.2</v>
+      </c>
+      <c r="S159" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T159"/>
       <c r="U159" t="n">
         <v>56</v>
@@ -8027,11 +9285,21 @@
         <v>28</v>
       </c>
       <c r="N160"/>
-      <c r="O160"/>
-      <c r="P160"/>
-      <c r="Q160"/>
-      <c r="R160"/>
-      <c r="S160"/>
+      <c r="O160" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="P160" t="n">
+        <v>37.51</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>62.05</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2014.6</v>
+      </c>
+      <c r="S160" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T160"/>
       <c r="U160" t="n">
         <v>55.3</v>
@@ -8073,7 +9341,9 @@
       <c r="O161"/>
       <c r="P161"/>
       <c r="Q161"/>
-      <c r="R161"/>
+      <c r="R161" t="n">
+        <v>2475.7</v>
+      </c>
       <c r="S161"/>
       <c r="T161"/>
       <c r="U161" t="n">
@@ -8575,7 +9845,9 @@
       <c r="T170" t="n">
         <v>1</v>
       </c>
-      <c r="U170"/>
+      <c r="U170" t="n">
+        <v>55.8</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -8634,7 +9906,9 @@
       <c r="T171" t="n">
         <v>1</v>
       </c>
-      <c r="U171"/>
+      <c r="U171" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -8685,7 +9959,9 @@
         <v>17.7</v>
       </c>
       <c r="T172"/>
-      <c r="U172"/>
+      <c r="U172" t="n">
+        <v>54.9</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">

--- a/exports/yield_files/LU 6.xlsx
+++ b/exports/yield_files/LU 6.xlsx
@@ -13574,15 +13574,15 @@
         <v>20</v>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H239"/>
       <c r="I239"/>
       <c r="J239" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K239" t="s">
         <v>73</v>
@@ -13591,31 +13591,31 @@
         <v>32</v>
       </c>
       <c r="M239" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N239" t="n">
         <v>1</v>
       </c>
       <c r="O239" t="n">
-        <v>21.73</v>
+        <v>21.52</v>
       </c>
       <c r="P239" t="n">
-        <v>44.28</v>
+        <v>46.04</v>
       </c>
       <c r="Q239" t="n">
-        <v>66.01</v>
+        <v>67.56</v>
       </c>
       <c r="R239" t="n">
-        <v>1788.6</v>
+        <v>1858.5</v>
       </c>
       <c r="S239" t="n">
-        <v>15</v>
+        <v>15.8</v>
       </c>
       <c r="T239" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U239" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="240">
@@ -13635,48 +13635,40 @@
         <v>20</v>
       </c>
       <c r="F240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G240" t="n">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H240"/>
       <c r="I240"/>
-      <c r="J240" t="n">
-        <v>19</v>
-      </c>
+      <c r="J240"/>
       <c r="K240" t="s">
         <v>73</v>
       </c>
       <c r="L240" t="s">
         <v>32</v>
       </c>
-      <c r="M240" t="n">
-        <v>26</v>
-      </c>
-      <c r="N240" t="n">
-        <v>1</v>
-      </c>
+      <c r="M240"/>
+      <c r="N240"/>
       <c r="O240" t="n">
-        <v>21.52</v>
+        <v>20.61</v>
       </c>
       <c r="P240" t="n">
-        <v>46.04</v>
+        <v>46.45</v>
       </c>
       <c r="Q240" t="n">
-        <v>67.56</v>
+        <v>67.06</v>
       </c>
       <c r="R240" t="n">
-        <v>1858.5</v>
+        <v>2078.4</v>
       </c>
       <c r="S240" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="T240" t="n">
-        <v>1.5</v>
-      </c>
+        <v>16.1</v>
+      </c>
+      <c r="T240"/>
       <c r="U240" t="n">
-        <v>55.2</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="241">
@@ -13696,10 +13688,10 @@
         <v>20</v>
       </c>
       <c r="F241" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G241" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H241"/>
       <c r="I241"/>
@@ -13712,25 +13704,15 @@
       </c>
       <c r="M241"/>
       <c r="N241"/>
-      <c r="O241" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="P241" t="n">
-        <v>46.45</v>
-      </c>
-      <c r="Q241" t="n">
-        <v>67.06</v>
-      </c>
+      <c r="O241"/>
+      <c r="P241"/>
+      <c r="Q241"/>
       <c r="R241" t="n">
-        <v>2078.4</v>
-      </c>
-      <c r="S241" t="n">
-        <v>16.1</v>
-      </c>
+        <v>2278</v>
+      </c>
+      <c r="S241"/>
       <c r="T241"/>
-      <c r="U241" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="U241"/>
     </row>
     <row r="242">
       <c r="A242" t="s">
@@ -13743,37 +13725,55 @@
         <v>2021</v>
       </c>
       <c r="D242" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E242" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="H242"/>
       <c r="I242"/>
-      <c r="J242"/>
+      <c r="J242" t="n">
+        <v>18</v>
+      </c>
       <c r="K242" t="s">
         <v>73</v>
       </c>
       <c r="L242" t="s">
         <v>32</v>
       </c>
-      <c r="M242"/>
-      <c r="N242"/>
-      <c r="O242"/>
-      <c r="P242"/>
-      <c r="Q242"/>
+      <c r="M242" t="n">
+        <v>29</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="P242" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>65.55</v>
+      </c>
       <c r="R242" t="n">
-        <v>2278</v>
-      </c>
-      <c r="S242"/>
-      <c r="T242"/>
-      <c r="U242"/>
+        <v>1897.6</v>
+      </c>
+      <c r="S242" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1</v>
+      </c>
+      <c r="U242" t="n">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -13792,15 +13792,15 @@
         <v>21</v>
       </c>
       <c r="F243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G243" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="H243"/>
       <c r="I243"/>
       <c r="J243" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K243" t="s">
         <v>73</v>
@@ -13809,22 +13809,22 @@
         <v>32</v>
       </c>
       <c r="M243" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N243" t="n">
         <v>1</v>
       </c>
       <c r="O243" t="n">
-        <v>22.56</v>
+        <v>22.84</v>
       </c>
       <c r="P243" t="n">
-        <v>42.99</v>
+        <v>45.61</v>
       </c>
       <c r="Q243" t="n">
-        <v>65.55</v>
+        <v>68.45</v>
       </c>
       <c r="R243" t="n">
-        <v>1897.6</v>
+        <v>1653.2</v>
       </c>
       <c r="S243" t="n">
         <v>15.7</v>
@@ -13853,48 +13853,40 @@
         <v>21</v>
       </c>
       <c r="F244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G244" t="n">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="H244"/>
       <c r="I244"/>
-      <c r="J244" t="n">
-        <v>22</v>
-      </c>
+      <c r="J244"/>
       <c r="K244" t="s">
         <v>73</v>
       </c>
       <c r="L244" t="s">
         <v>32</v>
       </c>
-      <c r="M244" t="n">
-        <v>30</v>
-      </c>
-      <c r="N244" t="n">
-        <v>1</v>
-      </c>
+      <c r="M244"/>
+      <c r="N244"/>
       <c r="O244" t="n">
-        <v>22.84</v>
+        <v>22.37</v>
       </c>
       <c r="P244" t="n">
-        <v>45.61</v>
+        <v>45.38</v>
       </c>
       <c r="Q244" t="n">
-        <v>68.45</v>
+        <v>67.75</v>
       </c>
       <c r="R244" t="n">
-        <v>1653.2</v>
+        <v>1820.8</v>
       </c>
       <c r="S244" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="T244" t="n">
-        <v>1</v>
-      </c>
+        <v>17.2</v>
+      </c>
+      <c r="T244"/>
       <c r="U244" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="245">
@@ -13914,10 +13906,10 @@
         <v>21</v>
       </c>
       <c r="F245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G245" t="n">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="H245"/>
       <c r="I245"/>
@@ -13930,25 +13922,15 @@
       </c>
       <c r="M245"/>
       <c r="N245"/>
-      <c r="O245" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="P245" t="n">
-        <v>45.38</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>67.75</v>
-      </c>
+      <c r="O245"/>
+      <c r="P245"/>
+      <c r="Q245"/>
       <c r="R245" t="n">
-        <v>1820.8</v>
-      </c>
-      <c r="S245" t="n">
-        <v>17.2</v>
-      </c>
+        <v>1979.6</v>
+      </c>
+      <c r="S245"/>
       <c r="T245"/>
-      <c r="U245" t="n">
-        <v>55.6</v>
-      </c>
+      <c r="U245"/>
     </row>
     <row r="246">
       <c r="A246" t="s">
@@ -13961,37 +13943,55 @@
         <v>2021</v>
       </c>
       <c r="D246" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E246" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F246" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="H246"/>
       <c r="I246"/>
-      <c r="J246"/>
+      <c r="J246" t="n">
+        <v>15</v>
+      </c>
       <c r="K246" t="s">
         <v>73</v>
       </c>
       <c r="L246" t="s">
+        <v>25</v>
+      </c>
+      <c r="M246" t="n">
         <v>32</v>
       </c>
-      <c r="M246"/>
-      <c r="N246"/>
-      <c r="O246"/>
-      <c r="P246"/>
-      <c r="Q246"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+      <c r="O246" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="P246" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>67.33</v>
+      </c>
       <c r="R246" t="n">
-        <v>1979.6</v>
-      </c>
-      <c r="S246"/>
-      <c r="T246"/>
-      <c r="U246"/>
+        <v>1951.6</v>
+      </c>
+      <c r="S246" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1</v>
+      </c>
+      <c r="U246" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -14010,15 +14010,15 @@
         <v>22</v>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G247" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H247"/>
       <c r="I247"/>
       <c r="J247" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K247" t="s">
         <v>73</v>
@@ -14030,28 +14030,28 @@
         <v>32</v>
       </c>
       <c r="N247" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O247" t="n">
-        <v>23.47</v>
+        <v>23.12</v>
       </c>
       <c r="P247" t="n">
-        <v>43.86</v>
+        <v>45.36</v>
       </c>
       <c r="Q247" t="n">
-        <v>67.33</v>
+        <v>68.48</v>
       </c>
       <c r="R247" t="n">
-        <v>1951.6</v>
+        <v>2332.6</v>
       </c>
       <c r="S247" t="n">
-        <v>16.6</v>
+        <v>18.2</v>
       </c>
       <c r="T247" t="n">
         <v>1</v>
       </c>
       <c r="U247" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="248">
@@ -14071,48 +14071,40 @@
         <v>22</v>
       </c>
       <c r="F248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G248" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H248"/>
       <c r="I248"/>
-      <c r="J248" t="n">
-        <v>21</v>
-      </c>
+      <c r="J248"/>
       <c r="K248" t="s">
         <v>73</v>
       </c>
       <c r="L248" t="s">
         <v>25</v>
       </c>
-      <c r="M248" t="n">
-        <v>32</v>
-      </c>
-      <c r="N248" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M248"/>
+      <c r="N248"/>
       <c r="O248" t="n">
-        <v>23.12</v>
+        <v>22.38</v>
       </c>
       <c r="P248" t="n">
-        <v>45.36</v>
+        <v>45.94</v>
       </c>
       <c r="Q248" t="n">
-        <v>68.48</v>
+        <v>68.32</v>
       </c>
       <c r="R248" t="n">
-        <v>2332.6</v>
+        <v>2248.6</v>
       </c>
       <c r="S248" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="T248" t="n">
-        <v>1</v>
-      </c>
+        <v>18.9</v>
+      </c>
+      <c r="T248"/>
       <c r="U248" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="249">
@@ -14132,10 +14124,10 @@
         <v>22</v>
       </c>
       <c r="F249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G249" t="n">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="H249"/>
       <c r="I249"/>
@@ -14148,25 +14140,15 @@
       </c>
       <c r="M249"/>
       <c r="N249"/>
-      <c r="O249" t="n">
-        <v>22.38</v>
-      </c>
-      <c r="P249" t="n">
-        <v>45.94</v>
-      </c>
-      <c r="Q249" t="n">
-        <v>68.32</v>
-      </c>
+      <c r="O249"/>
+      <c r="P249"/>
+      <c r="Q249"/>
       <c r="R249" t="n">
-        <v>2248.6</v>
-      </c>
-      <c r="S249" t="n">
-        <v>18.9</v>
-      </c>
+        <v>2219.8</v>
+      </c>
+      <c r="S249"/>
       <c r="T249"/>
-      <c r="U249" t="n">
-        <v>55.9</v>
-      </c>
+      <c r="U249"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
@@ -14179,37 +14161,55 @@
         <v>2021</v>
       </c>
       <c r="D250" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E250" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="H250"/>
       <c r="I250"/>
-      <c r="J250"/>
+      <c r="J250" t="n">
+        <v>17</v>
+      </c>
       <c r="K250" t="s">
         <v>73</v>
       </c>
       <c r="L250" t="s">
         <v>25</v>
       </c>
-      <c r="M250"/>
-      <c r="N250"/>
-      <c r="O250"/>
-      <c r="P250"/>
-      <c r="Q250"/>
+      <c r="M250" t="n">
+        <v>28</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="P250" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>66.57</v>
+      </c>
       <c r="R250" t="n">
-        <v>2219.8</v>
-      </c>
-      <c r="S250"/>
-      <c r="T250"/>
-      <c r="U250"/>
+        <v>2154.3</v>
+      </c>
+      <c r="S250" t="n">
+        <v>14</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1</v>
+      </c>
+      <c r="U250" t="n">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -14228,15 +14228,15 @@
         <v>23</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G251" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H251"/>
       <c r="I251"/>
       <c r="J251" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K251" t="s">
         <v>73</v>
@@ -14245,31 +14245,31 @@
         <v>25</v>
       </c>
       <c r="M251" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N251" t="n">
         <v>1</v>
       </c>
       <c r="O251" t="n">
-        <v>21.51</v>
+        <v>21.5</v>
       </c>
       <c r="P251" t="n">
-        <v>45.06</v>
+        <v>45.33</v>
       </c>
       <c r="Q251" t="n">
-        <v>66.57</v>
+        <v>66.83</v>
       </c>
       <c r="R251" t="n">
-        <v>2154.3</v>
+        <v>2081.4</v>
       </c>
       <c r="S251" t="n">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="T251" t="n">
         <v>1</v>
       </c>
       <c r="U251" t="n">
-        <v>56.8</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="252">
@@ -14289,48 +14289,40 @@
         <v>23</v>
       </c>
       <c r="F252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G252" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H252"/>
       <c r="I252"/>
-      <c r="J252" t="n">
-        <v>16</v>
-      </c>
+      <c r="J252"/>
       <c r="K252" t="s">
         <v>73</v>
       </c>
       <c r="L252" t="s">
         <v>25</v>
       </c>
-      <c r="M252" t="n">
-        <v>29</v>
-      </c>
-      <c r="N252" t="n">
-        <v>1</v>
-      </c>
+      <c r="M252"/>
+      <c r="N252"/>
       <c r="O252" t="n">
-        <v>21.5</v>
+        <v>21.68</v>
       </c>
       <c r="P252" t="n">
-        <v>45.33</v>
+        <v>45.65</v>
       </c>
       <c r="Q252" t="n">
-        <v>66.83</v>
+        <v>67.33</v>
       </c>
       <c r="R252" t="n">
-        <v>2081.4</v>
+        <v>1928.5</v>
       </c>
       <c r="S252" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T252" t="n">
-        <v>1</v>
-      </c>
+        <v>15.2</v>
+      </c>
+      <c r="T252"/>
       <c r="U252" t="n">
-        <v>57.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="253">
@@ -14350,10 +14342,10 @@
         <v>23</v>
       </c>
       <c r="F253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G253" t="n">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H253"/>
       <c r="I253"/>
@@ -14366,25 +14358,15 @@
       </c>
       <c r="M253"/>
       <c r="N253"/>
-      <c r="O253" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="P253" t="n">
-        <v>45.65</v>
-      </c>
-      <c r="Q253" t="n">
-        <v>67.33</v>
-      </c>
+      <c r="O253"/>
+      <c r="P253"/>
+      <c r="Q253"/>
       <c r="R253" t="n">
-        <v>1928.5</v>
-      </c>
-      <c r="S253" t="n">
-        <v>15.2</v>
-      </c>
+        <v>2406.6</v>
+      </c>
+      <c r="S253"/>
       <c r="T253"/>
-      <c r="U253" t="n">
-        <v>57</v>
-      </c>
+      <c r="U253"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -14397,37 +14379,55 @@
         <v>2021</v>
       </c>
       <c r="D254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E254" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="H254"/>
       <c r="I254"/>
-      <c r="J254"/>
+      <c r="J254" t="n">
+        <v>12</v>
+      </c>
       <c r="K254" t="s">
         <v>73</v>
       </c>
       <c r="L254" t="s">
         <v>25</v>
       </c>
-      <c r="M254"/>
-      <c r="N254"/>
-      <c r="O254"/>
-      <c r="P254"/>
-      <c r="Q254"/>
+      <c r="M254" t="n">
+        <v>21</v>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="P254" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>67.46</v>
+      </c>
       <c r="R254" t="n">
-        <v>2406.6</v>
-      </c>
-      <c r="S254"/>
-      <c r="T254"/>
-      <c r="U254"/>
+        <v>1616.5</v>
+      </c>
+      <c r="S254" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1</v>
+      </c>
+      <c r="U254" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -14446,15 +14446,15 @@
         <v>24</v>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G255" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H255"/>
       <c r="I255"/>
       <c r="J255" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K255" t="s">
         <v>73</v>
@@ -14463,31 +14463,31 @@
         <v>25</v>
       </c>
       <c r="M255" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N255" t="n">
         <v>1</v>
       </c>
       <c r="O255" t="n">
-        <v>21.83</v>
+        <v>21.68</v>
       </c>
       <c r="P255" t="n">
-        <v>45.63</v>
+        <v>46.67</v>
       </c>
       <c r="Q255" t="n">
-        <v>67.46</v>
+        <v>68.35</v>
       </c>
       <c r="R255" t="n">
-        <v>1616.5</v>
+        <v>2193.1</v>
       </c>
       <c r="S255" t="n">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="T255" t="n">
         <v>1</v>
       </c>
       <c r="U255" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="256">
@@ -14507,48 +14507,40 @@
         <v>24</v>
       </c>
       <c r="F256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G256" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="H256"/>
       <c r="I256"/>
-      <c r="J256" t="n">
-        <v>14</v>
-      </c>
+      <c r="J256"/>
       <c r="K256" t="s">
         <v>73</v>
       </c>
       <c r="L256" t="s">
         <v>25</v>
       </c>
-      <c r="M256" t="n">
-        <v>26</v>
-      </c>
-      <c r="N256" t="n">
-        <v>1</v>
-      </c>
+      <c r="M256"/>
+      <c r="N256"/>
       <c r="O256" t="n">
-        <v>21.68</v>
+        <v>21.46</v>
       </c>
       <c r="P256" t="n">
-        <v>46.67</v>
+        <v>46.95</v>
       </c>
       <c r="Q256" t="n">
-        <v>68.35</v>
+        <v>68.41</v>
       </c>
       <c r="R256" t="n">
-        <v>2193.1</v>
+        <v>1907.8</v>
       </c>
       <c r="S256" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T256" t="n">
-        <v>1</v>
-      </c>
+        <v>12.4</v>
+      </c>
+      <c r="T256"/>
       <c r="U256" t="n">
-        <v>56.2</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="257">
@@ -14568,10 +14560,10 @@
         <v>24</v>
       </c>
       <c r="F257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G257" t="n">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="H257"/>
       <c r="I257"/>
@@ -14584,25 +14576,15 @@
       </c>
       <c r="M257"/>
       <c r="N257"/>
-      <c r="O257" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="P257" t="n">
-        <v>46.95</v>
-      </c>
-      <c r="Q257" t="n">
-        <v>68.41</v>
-      </c>
+      <c r="O257"/>
+      <c r="P257"/>
+      <c r="Q257"/>
       <c r="R257" t="n">
-        <v>1907.8</v>
-      </c>
-      <c r="S257" t="n">
-        <v>12.4</v>
-      </c>
+        <v>2652</v>
+      </c>
+      <c r="S257"/>
       <c r="T257"/>
-      <c r="U257" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="U257"/>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -14615,37 +14597,55 @@
         <v>2021</v>
       </c>
       <c r="D258" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E258" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F258" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G258" t="n">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="H258"/>
       <c r="I258"/>
-      <c r="J258"/>
+      <c r="J258" t="n">
+        <v>12</v>
+      </c>
       <c r="K258" t="s">
         <v>73</v>
       </c>
       <c r="L258" t="s">
         <v>25</v>
       </c>
-      <c r="M258"/>
-      <c r="N258"/>
-      <c r="O258"/>
-      <c r="P258"/>
-      <c r="Q258"/>
+      <c r="M258" t="n">
+        <v>33</v>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+      <c r="O258" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="P258" t="n">
+        <v>47.32</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>68.46</v>
+      </c>
       <c r="R258" t="n">
-        <v>2652</v>
-      </c>
-      <c r="S258"/>
-      <c r="T258"/>
-      <c r="U258"/>
+        <v>1833</v>
+      </c>
+      <c r="S258" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1</v>
+      </c>
+      <c r="U258" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -14664,15 +14664,15 @@
         <v>25</v>
       </c>
       <c r="F259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G259" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H259"/>
       <c r="I259"/>
       <c r="J259" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K259" t="s">
         <v>73</v>
@@ -14681,31 +14681,31 @@
         <v>25</v>
       </c>
       <c r="M259" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N259" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O259" t="n">
-        <v>21.14</v>
+        <v>20.56</v>
       </c>
       <c r="P259" t="n">
-        <v>47.32</v>
+        <v>48.43</v>
       </c>
       <c r="Q259" t="n">
-        <v>68.46</v>
+        <v>68.99</v>
       </c>
       <c r="R259" t="n">
-        <v>1833</v>
+        <v>1713.8</v>
       </c>
       <c r="S259" t="n">
-        <v>13.7</v>
+        <v>15.1</v>
       </c>
       <c r="T259" t="n">
         <v>1</v>
       </c>
       <c r="U259" t="n">
-        <v>57.1</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="260">
@@ -14725,48 +14725,40 @@
         <v>25</v>
       </c>
       <c r="F260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G260" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H260"/>
       <c r="I260"/>
-      <c r="J260" t="n">
-        <v>14</v>
-      </c>
+      <c r="J260"/>
       <c r="K260" t="s">
         <v>73</v>
       </c>
       <c r="L260" t="s">
         <v>25</v>
       </c>
-      <c r="M260" t="n">
-        <v>32</v>
-      </c>
-      <c r="N260" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M260"/>
+      <c r="N260"/>
       <c r="O260" t="n">
-        <v>20.56</v>
+        <v>20.66</v>
       </c>
       <c r="P260" t="n">
-        <v>48.43</v>
+        <v>48.64</v>
       </c>
       <c r="Q260" t="n">
-        <v>68.99</v>
+        <v>69.3</v>
       </c>
       <c r="R260" t="n">
-        <v>1713.8</v>
+        <v>2375.2</v>
       </c>
       <c r="S260" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="T260" t="n">
-        <v>1</v>
-      </c>
+        <v>14.7</v>
+      </c>
+      <c r="T260"/>
       <c r="U260" t="n">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="261">
@@ -14786,10 +14778,10 @@
         <v>25</v>
       </c>
       <c r="F261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G261" t="n">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H261"/>
       <c r="I261"/>
@@ -14802,25 +14794,15 @@
       </c>
       <c r="M261"/>
       <c r="N261"/>
-      <c r="O261" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="P261" t="n">
-        <v>48.64</v>
-      </c>
-      <c r="Q261" t="n">
-        <v>69.3</v>
-      </c>
+      <c r="O261"/>
+      <c r="P261"/>
+      <c r="Q261"/>
       <c r="R261" t="n">
-        <v>2375.2</v>
-      </c>
-      <c r="S261" t="n">
-        <v>14.7</v>
-      </c>
+        <v>2540.7</v>
+      </c>
+      <c r="S261"/>
       <c r="T261"/>
-      <c r="U261" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="U261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -14833,37 +14815,55 @@
         <v>2021</v>
       </c>
       <c r="D262" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E262" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F262" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="H262"/>
       <c r="I262"/>
-      <c r="J262"/>
+      <c r="J262" t="n">
+        <v>16</v>
+      </c>
       <c r="K262" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L262" t="s">
         <v>25</v>
       </c>
-      <c r="M262"/>
-      <c r="N262"/>
-      <c r="O262"/>
-      <c r="P262"/>
-      <c r="Q262"/>
+      <c r="M262" t="n">
+        <v>38</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2</v>
+      </c>
+      <c r="O262" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="P262" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>68.24</v>
+      </c>
       <c r="R262" t="n">
-        <v>2540.7</v>
-      </c>
-      <c r="S262"/>
-      <c r="T262"/>
-      <c r="U262"/>
+        <v>2110.3</v>
+      </c>
+      <c r="S262" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1</v>
+      </c>
+      <c r="U262" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -14882,15 +14882,15 @@
         <v>26</v>
       </c>
       <c r="F263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G263" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="H263"/>
       <c r="I263"/>
       <c r="J263" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K263" t="s">
         <v>74</v>
@@ -14899,31 +14899,31 @@
         <v>25</v>
       </c>
       <c r="M263" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O263" t="n">
-        <v>23.99</v>
+        <v>22.61</v>
       </c>
       <c r="P263" t="n">
-        <v>44.25</v>
+        <v>44.66</v>
       </c>
       <c r="Q263" t="n">
-        <v>68.24</v>
+        <v>67.27</v>
       </c>
       <c r="R263" t="n">
-        <v>2110.3</v>
+        <v>1862.1</v>
       </c>
       <c r="S263" t="n">
-        <v>15.3</v>
+        <v>13.1</v>
       </c>
       <c r="T263" t="n">
         <v>1</v>
       </c>
       <c r="U263" t="n">
-        <v>57.1</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="264">
@@ -14943,48 +14943,40 @@
         <v>26</v>
       </c>
       <c r="F264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G264" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H264"/>
       <c r="I264"/>
-      <c r="J264" t="n">
-        <v>15</v>
-      </c>
+      <c r="J264"/>
       <c r="K264" t="s">
         <v>74</v>
       </c>
       <c r="L264" t="s">
         <v>25</v>
       </c>
-      <c r="M264" t="n">
-        <v>32</v>
-      </c>
-      <c r="N264" t="n">
-        <v>1</v>
-      </c>
+      <c r="M264"/>
+      <c r="N264"/>
       <c r="O264" t="n">
-        <v>22.61</v>
+        <v>23.02</v>
       </c>
       <c r="P264" t="n">
-        <v>44.66</v>
+        <v>43.92</v>
       </c>
       <c r="Q264" t="n">
-        <v>67.27</v>
+        <v>66.94</v>
       </c>
       <c r="R264" t="n">
-        <v>1862.1</v>
+        <v>2441.4</v>
       </c>
       <c r="S264" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T264" t="n">
-        <v>1</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="T264"/>
       <c r="U264" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="265">
@@ -15004,10 +14996,10 @@
         <v>26</v>
       </c>
       <c r="F265" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G265" t="n">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H265"/>
       <c r="I265"/>
@@ -15020,25 +15012,15 @@
       </c>
       <c r="M265"/>
       <c r="N265"/>
-      <c r="O265" t="n">
-        <v>23.02</v>
-      </c>
-      <c r="P265" t="n">
-        <v>43.92</v>
-      </c>
-      <c r="Q265" t="n">
-        <v>66.94</v>
-      </c>
+      <c r="O265"/>
+      <c r="P265"/>
+      <c r="Q265"/>
       <c r="R265" t="n">
-        <v>2441.4</v>
-      </c>
-      <c r="S265" t="n">
-        <v>14.8</v>
-      </c>
+        <v>2066.1</v>
+      </c>
+      <c r="S265"/>
       <c r="T265"/>
-      <c r="U265" t="n">
-        <v>57.8</v>
-      </c>
+      <c r="U265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -15051,37 +15033,55 @@
         <v>2021</v>
       </c>
       <c r="D266" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E266" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F266" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="H266"/>
       <c r="I266"/>
-      <c r="J266"/>
+      <c r="J266" t="n">
+        <v>24</v>
+      </c>
       <c r="K266" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L266" t="s">
         <v>25</v>
       </c>
-      <c r="M266"/>
-      <c r="N266"/>
-      <c r="O266"/>
-      <c r="P266"/>
-      <c r="Q266"/>
+      <c r="M266" t="n">
+        <v>38</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O266" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="P266" t="n">
+        <v>44.59</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>67.07</v>
+      </c>
       <c r="R266" t="n">
-        <v>2066.1</v>
-      </c>
-      <c r="S266"/>
-      <c r="T266"/>
-      <c r="U266"/>
+        <v>1836.1</v>
+      </c>
+      <c r="S266" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1</v>
+      </c>
+      <c r="U266" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -15100,15 +15100,15 @@
         <v>27</v>
       </c>
       <c r="F267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G267" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H267"/>
       <c r="I267"/>
       <c r="J267" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K267" t="s">
         <v>73</v>
@@ -15117,31 +15117,31 @@
         <v>25</v>
       </c>
       <c r="M267" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N267" t="n">
         <v>2.5</v>
       </c>
       <c r="O267" t="n">
-        <v>22.48</v>
+        <v>23.45</v>
       </c>
       <c r="P267" t="n">
-        <v>44.59</v>
+        <v>43.12</v>
       </c>
       <c r="Q267" t="n">
-        <v>67.07</v>
+        <v>66.57</v>
       </c>
       <c r="R267" t="n">
-        <v>1836.1</v>
+        <v>1686</v>
       </c>
       <c r="S267" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="T267" t="n">
         <v>1</v>
       </c>
       <c r="U267" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="268">
@@ -15161,48 +15161,40 @@
         <v>27</v>
       </c>
       <c r="F268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G268" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H268"/>
       <c r="I268"/>
-      <c r="J268" t="n">
-        <v>23</v>
-      </c>
+      <c r="J268"/>
       <c r="K268" t="s">
         <v>73</v>
       </c>
       <c r="L268" t="s">
         <v>25</v>
       </c>
-      <c r="M268" t="n">
-        <v>41</v>
-      </c>
-      <c r="N268" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M268"/>
+      <c r="N268"/>
       <c r="O268" t="n">
-        <v>23.45</v>
+        <v>22.43</v>
       </c>
       <c r="P268" t="n">
-        <v>43.12</v>
+        <v>44.17</v>
       </c>
       <c r="Q268" t="n">
-        <v>66.57</v>
+        <v>66.6</v>
       </c>
       <c r="R268" t="n">
-        <v>1686</v>
+        <v>2078.4</v>
       </c>
       <c r="S268" t="n">
         <v>13.6</v>
       </c>
-      <c r="T268" t="n">
-        <v>1</v>
-      </c>
+      <c r="T268"/>
       <c r="U268" t="n">
-        <v>58.2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="269">
@@ -15222,10 +15214,10 @@
         <v>27</v>
       </c>
       <c r="F269" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G269" t="n">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="H269"/>
       <c r="I269"/>
@@ -15238,25 +15230,15 @@
       </c>
       <c r="M269"/>
       <c r="N269"/>
-      <c r="O269" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="P269" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="Q269" t="n">
-        <v>66.6</v>
-      </c>
+      <c r="O269"/>
+      <c r="P269"/>
+      <c r="Q269"/>
       <c r="R269" t="n">
-        <v>2078.4</v>
-      </c>
-      <c r="S269" t="n">
-        <v>13.6</v>
-      </c>
+        <v>1672.7</v>
+      </c>
+      <c r="S269"/>
       <c r="T269"/>
-      <c r="U269" t="n">
-        <v>58</v>
-      </c>
+      <c r="U269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
@@ -15269,37 +15251,55 @@
         <v>2021</v>
       </c>
       <c r="D270" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E270" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G270" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="H270"/>
       <c r="I270"/>
-      <c r="J270"/>
+      <c r="J270" t="n">
+        <v>18</v>
+      </c>
       <c r="K270" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L270" t="s">
         <v>25</v>
       </c>
-      <c r="M270"/>
-      <c r="N270"/>
-      <c r="O270"/>
-      <c r="P270"/>
-      <c r="Q270"/>
+      <c r="M270" t="n">
+        <v>36</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O270" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="P270" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>66.59</v>
+      </c>
       <c r="R270" t="n">
-        <v>1672.7</v>
-      </c>
-      <c r="S270"/>
-      <c r="T270"/>
-      <c r="U270"/>
+        <v>1766.8</v>
+      </c>
+      <c r="S270" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1</v>
+      </c>
+      <c r="U270" t="n">
+        <v>56.1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -15318,10 +15318,10 @@
         <v>28</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G271" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H271"/>
       <c r="I271"/>
@@ -15335,31 +15335,31 @@
         <v>25</v>
       </c>
       <c r="M271" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N271" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O271" t="n">
-        <v>22.09</v>
+        <v>21.37</v>
       </c>
       <c r="P271" t="n">
-        <v>44.5</v>
+        <v>46.21</v>
       </c>
       <c r="Q271" t="n">
-        <v>66.59</v>
+        <v>67.58</v>
       </c>
       <c r="R271" t="n">
-        <v>1766.8</v>
+        <v>1933.1</v>
       </c>
       <c r="S271" t="n">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="T271" t="n">
         <v>1</v>
       </c>
       <c r="U271" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="272">
@@ -15379,48 +15379,40 @@
         <v>28</v>
       </c>
       <c r="F272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G272" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H272"/>
       <c r="I272"/>
-      <c r="J272" t="n">
-        <v>18</v>
-      </c>
+      <c r="J272"/>
       <c r="K272" t="s">
         <v>74</v>
       </c>
       <c r="L272" t="s">
         <v>25</v>
       </c>
-      <c r="M272" t="n">
-        <v>39</v>
-      </c>
-      <c r="N272" t="n">
-        <v>1</v>
-      </c>
+      <c r="M272"/>
+      <c r="N272"/>
       <c r="O272" t="n">
-        <v>21.37</v>
+        <v>22.3</v>
       </c>
       <c r="P272" t="n">
-        <v>46.21</v>
+        <v>44.14</v>
       </c>
       <c r="Q272" t="n">
-        <v>67.58</v>
+        <v>66.44</v>
       </c>
       <c r="R272" t="n">
-        <v>1933.1</v>
+        <v>2101.5</v>
       </c>
       <c r="S272" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T272" t="n">
-        <v>1</v>
-      </c>
+        <v>13.3</v>
+      </c>
+      <c r="T272"/>
       <c r="U272" t="n">
-        <v>56.4</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="273">
@@ -15440,10 +15432,10 @@
         <v>28</v>
       </c>
       <c r="F273" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G273" t="n">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="H273"/>
       <c r="I273"/>
@@ -15456,25 +15448,15 @@
       </c>
       <c r="M273"/>
       <c r="N273"/>
-      <c r="O273" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="P273" t="n">
-        <v>44.14</v>
-      </c>
-      <c r="Q273" t="n">
-        <v>66.44</v>
-      </c>
+      <c r="O273"/>
+      <c r="P273"/>
+      <c r="Q273"/>
       <c r="R273" t="n">
-        <v>2101.5</v>
-      </c>
-      <c r="S273" t="n">
-        <v>13.3</v>
-      </c>
+        <v>2067.5</v>
+      </c>
+      <c r="S273"/>
       <c r="T273"/>
-      <c r="U273" t="n">
-        <v>56.2</v>
-      </c>
+      <c r="U273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -15487,37 +15469,55 @@
         <v>2021</v>
       </c>
       <c r="D274" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E274" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F274" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G274" t="n">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="H274"/>
       <c r="I274"/>
-      <c r="J274"/>
+      <c r="J274" t="n">
+        <v>28</v>
+      </c>
       <c r="K274" t="s">
         <v>74</v>
       </c>
       <c r="L274" t="s">
         <v>25</v>
       </c>
-      <c r="M274"/>
-      <c r="N274"/>
-      <c r="O274"/>
-      <c r="P274"/>
-      <c r="Q274"/>
+      <c r="M274" t="n">
+        <v>37</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O274" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="P274" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>65.98</v>
+      </c>
       <c r="R274" t="n">
-        <v>2067.5</v>
-      </c>
-      <c r="S274"/>
-      <c r="T274"/>
-      <c r="U274"/>
+        <v>1301.4</v>
+      </c>
+      <c r="S274" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1</v>
+      </c>
+      <c r="U274" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -15536,15 +15536,15 @@
         <v>29</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G275" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H275"/>
       <c r="I275"/>
       <c r="J275" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K275" t="s">
         <v>74</v>
@@ -15553,31 +15553,31 @@
         <v>25</v>
       </c>
       <c r="M275" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N275" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O275" t="n">
-        <v>21.96</v>
+        <v>22.44</v>
       </c>
       <c r="P275" t="n">
-        <v>44.02</v>
+        <v>44.77</v>
       </c>
       <c r="Q275" t="n">
-        <v>65.98</v>
+        <v>67.21</v>
       </c>
       <c r="R275" t="n">
-        <v>1301.4</v>
+        <v>1867</v>
       </c>
       <c r="S275" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="T275" t="n">
         <v>1</v>
       </c>
       <c r="U275" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="276">
@@ -15597,48 +15597,40 @@
         <v>29</v>
       </c>
       <c r="F276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G276" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="H276"/>
       <c r="I276"/>
-      <c r="J276" t="n">
-        <v>29</v>
-      </c>
+      <c r="J276"/>
       <c r="K276" t="s">
         <v>74</v>
       </c>
       <c r="L276" t="s">
         <v>25</v>
       </c>
-      <c r="M276" t="n">
-        <v>34</v>
-      </c>
-      <c r="N276" t="n">
-        <v>2</v>
-      </c>
+      <c r="M276"/>
+      <c r="N276"/>
       <c r="O276" t="n">
-        <v>22.44</v>
+        <v>22.57</v>
       </c>
       <c r="P276" t="n">
-        <v>44.77</v>
+        <v>44.49</v>
       </c>
       <c r="Q276" t="n">
-        <v>67.21</v>
+        <v>67.06</v>
       </c>
       <c r="R276" t="n">
-        <v>1867</v>
+        <v>1517.1</v>
       </c>
       <c r="S276" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="T276" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="T276"/>
       <c r="U276" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="277">
@@ -15658,10 +15650,10 @@
         <v>29</v>
       </c>
       <c r="F277" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G277" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="H277"/>
       <c r="I277"/>
@@ -15674,25 +15666,15 @@
       </c>
       <c r="M277"/>
       <c r="N277"/>
-      <c r="O277" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="P277" t="n">
-        <v>44.49</v>
-      </c>
-      <c r="Q277" t="n">
-        <v>67.06</v>
-      </c>
+      <c r="O277"/>
+      <c r="P277"/>
+      <c r="Q277"/>
       <c r="R277" t="n">
-        <v>1517.1</v>
-      </c>
-      <c r="S277" t="n">
-        <v>15</v>
-      </c>
+        <v>2298.1</v>
+      </c>
+      <c r="S277"/>
       <c r="T277"/>
-      <c r="U277" t="n">
-        <v>55.7</v>
-      </c>
+      <c r="U277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -15705,37 +15687,55 @@
         <v>2021</v>
       </c>
       <c r="D278" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E278" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F278" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G278" t="n">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="H278"/>
       <c r="I278"/>
-      <c r="J278"/>
+      <c r="J278" t="n">
+        <v>22</v>
+      </c>
       <c r="K278" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L278" t="s">
         <v>25</v>
       </c>
-      <c r="M278"/>
-      <c r="N278"/>
-      <c r="O278"/>
-      <c r="P278"/>
-      <c r="Q278"/>
+      <c r="M278" t="n">
+        <v>44</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O278" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="P278" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>66.22</v>
+      </c>
       <c r="R278" t="n">
-        <v>2298.1</v>
-      </c>
-      <c r="S278"/>
-      <c r="T278"/>
-      <c r="U278"/>
+        <v>1548.8</v>
+      </c>
+      <c r="S278" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1</v>
+      </c>
+      <c r="U278" t="n">
+        <v>57.8</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -15754,15 +15754,15 @@
         <v>30</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G279" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H279"/>
       <c r="I279"/>
       <c r="J279" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K279" t="s">
         <v>73</v>
@@ -15774,28 +15774,28 @@
         <v>44</v>
       </c>
       <c r="N279" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O279" t="n">
-        <v>23.08</v>
+        <v>23.55</v>
       </c>
       <c r="P279" t="n">
-        <v>43.14</v>
+        <v>42.72</v>
       </c>
       <c r="Q279" t="n">
-        <v>66.22</v>
+        <v>66.27</v>
       </c>
       <c r="R279" t="n">
-        <v>1548.8</v>
+        <v>1971.3</v>
       </c>
       <c r="S279" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="T279" t="n">
         <v>1</v>
       </c>
       <c r="U279" t="n">
-        <v>57.8</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="280">
@@ -15815,48 +15815,40 @@
         <v>30</v>
       </c>
       <c r="F280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G280" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H280"/>
       <c r="I280"/>
-      <c r="J280" t="n">
-        <v>24</v>
-      </c>
+      <c r="J280"/>
       <c r="K280" t="s">
         <v>73</v>
       </c>
       <c r="L280" t="s">
         <v>25</v>
       </c>
-      <c r="M280" t="n">
-        <v>44</v>
-      </c>
-      <c r="N280" t="n">
-        <v>2</v>
-      </c>
+      <c r="M280"/>
+      <c r="N280"/>
       <c r="O280" t="n">
-        <v>23.55</v>
+        <v>23.1</v>
       </c>
       <c r="P280" t="n">
-        <v>42.72</v>
+        <v>43.87</v>
       </c>
       <c r="Q280" t="n">
-        <v>66.27</v>
+        <v>66.97</v>
       </c>
       <c r="R280" t="n">
-        <v>1971.3</v>
+        <v>1695.4</v>
       </c>
       <c r="S280" t="n">
-        <v>14</v>
-      </c>
-      <c r="T280" t="n">
-        <v>1</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="T280"/>
       <c r="U280" t="n">
-        <v>56.9</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="281">
@@ -15876,10 +15868,10 @@
         <v>30</v>
       </c>
       <c r="F281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G281" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H281"/>
       <c r="I281"/>
@@ -15892,25 +15884,15 @@
       </c>
       <c r="M281"/>
       <c r="N281"/>
-      <c r="O281" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="P281" t="n">
-        <v>43.87</v>
-      </c>
-      <c r="Q281" t="n">
-        <v>66.97</v>
-      </c>
+      <c r="O281"/>
+      <c r="P281"/>
+      <c r="Q281"/>
       <c r="R281" t="n">
-        <v>1695.4</v>
-      </c>
-      <c r="S281" t="n">
-        <v>13.5</v>
-      </c>
+        <v>1547.7</v>
+      </c>
+      <c r="S281"/>
       <c r="T281"/>
-      <c r="U281" t="n">
-        <v>58.2</v>
-      </c>
+      <c r="U281"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
@@ -15923,37 +15905,55 @@
         <v>2021</v>
       </c>
       <c r="D282" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E282" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G282" t="n">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="H282"/>
       <c r="I282"/>
-      <c r="J282"/>
+      <c r="J282" t="n">
+        <v>20</v>
+      </c>
       <c r="K282" t="s">
         <v>73</v>
       </c>
       <c r="L282" t="s">
         <v>25</v>
       </c>
-      <c r="M282"/>
-      <c r="N282"/>
-      <c r="O282"/>
-      <c r="P282"/>
-      <c r="Q282"/>
+      <c r="M282" t="n">
+        <v>35</v>
+      </c>
+      <c r="N282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O282" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="P282" t="n">
+        <v>39.93</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>64.12</v>
+      </c>
       <c r="R282" t="n">
-        <v>1547.7</v>
-      </c>
-      <c r="S282"/>
-      <c r="T282"/>
-      <c r="U282"/>
+        <v>1498.7</v>
+      </c>
+      <c r="S282" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T282" t="n">
+        <v>1</v>
+      </c>
+      <c r="U282" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -15972,15 +15972,15 @@
         <v>31</v>
       </c>
       <c r="F283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G283" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H283"/>
       <c r="I283"/>
       <c r="J283" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K283" t="s">
         <v>73</v>
@@ -15989,31 +15989,31 @@
         <v>25</v>
       </c>
       <c r="M283" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N283" t="n">
         <v>1.5</v>
       </c>
       <c r="O283" t="n">
-        <v>24.19</v>
+        <v>24.1</v>
       </c>
       <c r="P283" t="n">
-        <v>39.93</v>
+        <v>40.63</v>
       </c>
       <c r="Q283" t="n">
-        <v>64.12</v>
+        <v>64.73</v>
       </c>
       <c r="R283" t="n">
-        <v>1498.7</v>
+        <v>1624.8</v>
       </c>
       <c r="S283" t="n">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="T283" t="n">
         <v>1</v>
       </c>
       <c r="U283" t="n">
-        <v>56.5</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="284">
@@ -16033,48 +16033,40 @@
         <v>31</v>
       </c>
       <c r="F284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G284" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H284"/>
       <c r="I284"/>
-      <c r="J284" t="n">
-        <v>21</v>
-      </c>
+      <c r="J284"/>
       <c r="K284" t="s">
         <v>73</v>
       </c>
       <c r="L284" t="s">
         <v>25</v>
       </c>
-      <c r="M284" t="n">
-        <v>30</v>
-      </c>
-      <c r="N284" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M284"/>
+      <c r="N284"/>
       <c r="O284" t="n">
-        <v>24.1</v>
+        <v>23.69</v>
       </c>
       <c r="P284" t="n">
-        <v>40.63</v>
+        <v>39.7</v>
       </c>
       <c r="Q284" t="n">
-        <v>64.73</v>
+        <v>63.39</v>
       </c>
       <c r="R284" t="n">
-        <v>1624.8</v>
+        <v>1765.5</v>
       </c>
       <c r="S284" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="T284" t="n">
-        <v>1</v>
-      </c>
+        <v>14.3</v>
+      </c>
+      <c r="T284"/>
       <c r="U284" t="n">
-        <v>56.2</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="285">
@@ -16094,10 +16086,10 @@
         <v>31</v>
       </c>
       <c r="F285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G285" t="n">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="H285"/>
       <c r="I285"/>
@@ -16110,25 +16102,15 @@
       </c>
       <c r="M285"/>
       <c r="N285"/>
-      <c r="O285" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="P285" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="Q285" t="n">
-        <v>63.39</v>
-      </c>
+      <c r="O285"/>
+      <c r="P285"/>
+      <c r="Q285"/>
       <c r="R285" t="n">
-        <v>1765.5</v>
-      </c>
-      <c r="S285" t="n">
-        <v>14.3</v>
-      </c>
+        <v>1759.6</v>
+      </c>
+      <c r="S285"/>
       <c r="T285"/>
-      <c r="U285" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="U285"/>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -16141,37 +16123,55 @@
         <v>2021</v>
       </c>
       <c r="D286" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E286" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="H286"/>
       <c r="I286"/>
-      <c r="J286"/>
+      <c r="J286" t="n">
+        <v>19</v>
+      </c>
       <c r="K286" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L286" t="s">
         <v>25</v>
       </c>
-      <c r="M286"/>
-      <c r="N286"/>
-      <c r="O286"/>
-      <c r="P286"/>
-      <c r="Q286"/>
+      <c r="M286" t="n">
+        <v>34</v>
+      </c>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+      <c r="O286" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="P286" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>66.77</v>
+      </c>
       <c r="R286" t="n">
-        <v>1759.6</v>
-      </c>
-      <c r="S286"/>
-      <c r="T286"/>
-      <c r="U286"/>
+        <v>2012.5</v>
+      </c>
+      <c r="S286" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1</v>
+      </c>
+      <c r="U286" t="n">
+        <v>57.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -16190,10 +16190,10 @@
         <v>32</v>
       </c>
       <c r="F287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G287" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H287"/>
       <c r="I287"/>
@@ -16210,28 +16210,28 @@
         <v>34</v>
       </c>
       <c r="N287" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O287" t="n">
-        <v>21.36</v>
+        <v>21.51</v>
       </c>
       <c r="P287" t="n">
-        <v>45.41</v>
+        <v>44.28</v>
       </c>
       <c r="Q287" t="n">
-        <v>66.77</v>
+        <v>65.79</v>
       </c>
       <c r="R287" t="n">
-        <v>2012.5</v>
+        <v>2245.8</v>
       </c>
       <c r="S287" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="T287" t="n">
         <v>1</v>
       </c>
       <c r="U287" t="n">
-        <v>57.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="288">
@@ -16251,48 +16251,40 @@
         <v>32</v>
       </c>
       <c r="F288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G288" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H288"/>
       <c r="I288"/>
-      <c r="J288" t="n">
-        <v>19</v>
-      </c>
+      <c r="J288"/>
       <c r="K288" t="s">
         <v>74</v>
       </c>
       <c r="L288" t="s">
         <v>25</v>
       </c>
-      <c r="M288" t="n">
-        <v>34</v>
-      </c>
-      <c r="N288" t="n">
-        <v>1</v>
-      </c>
+      <c r="M288"/>
+      <c r="N288"/>
       <c r="O288" t="n">
-        <v>21.36</v>
+        <v>21.8</v>
       </c>
       <c r="P288" t="n">
-        <v>45.41</v>
+        <v>44.81</v>
       </c>
       <c r="Q288" t="n">
-        <v>66.77</v>
+        <v>66.61</v>
       </c>
       <c r="R288" t="n">
-        <v>2012.5</v>
+        <v>1946.4</v>
       </c>
       <c r="S288" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="T288" t="n">
-        <v>1</v>
-      </c>
+        <v>12.7</v>
+      </c>
+      <c r="T288"/>
       <c r="U288" t="n">
-        <v>56.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="289">
@@ -16312,49 +16304,31 @@
         <v>32</v>
       </c>
       <c r="F289" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G289" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="H289"/>
       <c r="I289"/>
-      <c r="J289" t="n">
-        <v>19</v>
-      </c>
+      <c r="J289"/>
       <c r="K289" t="s">
         <v>74</v>
       </c>
       <c r="L289" t="s">
         <v>25</v>
       </c>
-      <c r="M289" t="n">
-        <v>34</v>
-      </c>
-      <c r="N289" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O289" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="P289" t="n">
-        <v>44.28</v>
-      </c>
-      <c r="Q289" t="n">
-        <v>65.79</v>
-      </c>
+      <c r="M289"/>
+      <c r="N289"/>
+      <c r="O289"/>
+      <c r="P289"/>
+      <c r="Q289"/>
       <c r="R289" t="n">
-        <v>2245.8</v>
-      </c>
-      <c r="S289" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="T289" t="n">
-        <v>1</v>
-      </c>
-      <c r="U289" t="n">
-        <v>57.6</v>
-      </c>
+        <v>2034</v>
+      </c>
+      <c r="S289"/>
+      <c r="T289"/>
+      <c r="U289"/>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -16367,46 +16341,54 @@
         <v>2021</v>
       </c>
       <c r="D290" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E290" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="H290"/>
       <c r="I290"/>
-      <c r="J290"/>
+      <c r="J290" t="n">
+        <v>28</v>
+      </c>
       <c r="K290" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L290" t="s">
         <v>25</v>
       </c>
-      <c r="M290"/>
-      <c r="N290"/>
+      <c r="M290" t="n">
+        <v>41</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O290" t="n">
-        <v>21.8</v>
+        <v>22.88</v>
       </c>
       <c r="P290" t="n">
-        <v>44.81</v>
+        <v>43.16</v>
       </c>
       <c r="Q290" t="n">
-        <v>66.61</v>
+        <v>66.04</v>
       </c>
       <c r="R290" t="n">
-        <v>1946.4</v>
+        <v>1543.5</v>
       </c>
       <c r="S290" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="T290"/>
+        <v>15.8</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1</v>
+      </c>
       <c r="U290" t="n">
-        <v>58</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="291">
@@ -16420,37 +16402,55 @@
         <v>2021</v>
       </c>
       <c r="D291" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E291" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F291" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G291" t="n">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="H291"/>
       <c r="I291"/>
-      <c r="J291"/>
+      <c r="J291" t="n">
+        <v>28</v>
+      </c>
       <c r="K291" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L291" t="s">
         <v>25</v>
       </c>
-      <c r="M291"/>
-      <c r="N291"/>
-      <c r="O291"/>
-      <c r="P291"/>
-      <c r="Q291"/>
+      <c r="M291" t="n">
+        <v>46</v>
+      </c>
+      <c r="N291" t="n">
+        <v>2</v>
+      </c>
+      <c r="O291" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="P291" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>65.34</v>
+      </c>
       <c r="R291" t="n">
-        <v>2034</v>
-      </c>
-      <c r="S291"/>
-      <c r="T291"/>
-      <c r="U291"/>
+        <v>1952</v>
+      </c>
+      <c r="S291" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1</v>
+      </c>
+      <c r="U291" t="n">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -16469,48 +16469,40 @@
         <v>33</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G292" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H292"/>
       <c r="I292"/>
-      <c r="J292" t="n">
-        <v>28</v>
-      </c>
+      <c r="J292"/>
       <c r="K292" t="s">
         <v>73</v>
       </c>
       <c r="L292" t="s">
         <v>25</v>
       </c>
-      <c r="M292" t="n">
-        <v>41</v>
-      </c>
-      <c r="N292" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M292"/>
+      <c r="N292"/>
       <c r="O292" t="n">
-        <v>22.88</v>
+        <v>23.32</v>
       </c>
       <c r="P292" t="n">
-        <v>43.16</v>
+        <v>42.42</v>
       </c>
       <c r="Q292" t="n">
-        <v>66.04</v>
+        <v>65.74</v>
       </c>
       <c r="R292" t="n">
-        <v>1543.5</v>
+        <v>2240.6</v>
       </c>
       <c r="S292" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="T292" t="n">
-        <v>1</v>
-      </c>
+        <v>14.1</v>
+      </c>
+      <c r="T292"/>
       <c r="U292" t="n">
-        <v>55.3</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="293">
@@ -16530,49 +16522,31 @@
         <v>33</v>
       </c>
       <c r="F293" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G293" t="n">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="H293"/>
       <c r="I293"/>
-      <c r="J293" t="n">
-        <v>28</v>
-      </c>
+      <c r="J293"/>
       <c r="K293" t="s">
         <v>73</v>
       </c>
       <c r="L293" t="s">
         <v>25</v>
       </c>
-      <c r="M293" t="n">
-        <v>46</v>
-      </c>
-      <c r="N293" t="n">
-        <v>2</v>
-      </c>
-      <c r="O293" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="P293" t="n">
-        <v>41.96</v>
-      </c>
-      <c r="Q293" t="n">
-        <v>65.34</v>
-      </c>
+      <c r="M293"/>
+      <c r="N293"/>
+      <c r="O293"/>
+      <c r="P293"/>
+      <c r="Q293"/>
       <c r="R293" t="n">
-        <v>1952</v>
-      </c>
-      <c r="S293" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="T293" t="n">
-        <v>1</v>
-      </c>
-      <c r="U293" t="n">
-        <v>57.9</v>
-      </c>
+        <v>1953.7</v>
+      </c>
+      <c r="S293"/>
+      <c r="T293"/>
+      <c r="U293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -16585,46 +16559,54 @@
         <v>2021</v>
       </c>
       <c r="D294" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E294" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
         <v>3</v>
-      </c>
-      <c r="G294" t="n">
-        <v>90</v>
       </c>
       <c r="H294"/>
       <c r="I294"/>
-      <c r="J294"/>
+      <c r="J294" t="n">
+        <v>29</v>
+      </c>
       <c r="K294" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L294" t="s">
         <v>25</v>
       </c>
-      <c r="M294"/>
-      <c r="N294"/>
+      <c r="M294" t="n">
+        <v>42</v>
+      </c>
+      <c r="N294" t="n">
+        <v>2</v>
+      </c>
       <c r="O294" t="n">
-        <v>23.32</v>
+        <v>22.17</v>
       </c>
       <c r="P294" t="n">
-        <v>42.42</v>
+        <v>43.34</v>
       </c>
       <c r="Q294" t="n">
-        <v>65.74</v>
+        <v>65.51</v>
       </c>
       <c r="R294" t="n">
-        <v>2240.6</v>
+        <v>1537</v>
       </c>
       <c r="S294" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="T294"/>
+        <v>14.3</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1</v>
+      </c>
       <c r="U294" t="n">
-        <v>58.8</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="295">
@@ -16638,37 +16620,55 @@
         <v>2021</v>
       </c>
       <c r="D295" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E295" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F295" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G295" t="n">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="H295"/>
       <c r="I295"/>
-      <c r="J295"/>
+      <c r="J295" t="n">
+        <v>28</v>
+      </c>
       <c r="K295" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L295" t="s">
         <v>25</v>
       </c>
-      <c r="M295"/>
-      <c r="N295"/>
-      <c r="O295"/>
-      <c r="P295"/>
-      <c r="Q295"/>
+      <c r="M295" t="n">
+        <v>40</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O295" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P295" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>65.66</v>
+      </c>
       <c r="R295" t="n">
-        <v>1953.7</v>
-      </c>
-      <c r="S295"/>
-      <c r="T295"/>
-      <c r="U295"/>
+        <v>1577.8</v>
+      </c>
+      <c r="S295" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1</v>
+      </c>
+      <c r="U295" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
@@ -16687,48 +16687,40 @@
         <v>34</v>
       </c>
       <c r="F296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G296" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H296"/>
       <c r="I296"/>
-      <c r="J296" t="n">
-        <v>29</v>
-      </c>
+      <c r="J296"/>
       <c r="K296" t="s">
         <v>74</v>
       </c>
       <c r="L296" t="s">
         <v>25</v>
       </c>
-      <c r="M296" t="n">
-        <v>42</v>
-      </c>
-      <c r="N296" t="n">
-        <v>2</v>
-      </c>
+      <c r="M296"/>
+      <c r="N296"/>
       <c r="O296" t="n">
-        <v>22.17</v>
+        <v>22.51</v>
       </c>
       <c r="P296" t="n">
-        <v>43.34</v>
+        <v>42.85</v>
       </c>
       <c r="Q296" t="n">
-        <v>65.51</v>
+        <v>65.36</v>
       </c>
       <c r="R296" t="n">
-        <v>1537</v>
+        <v>1727.5</v>
       </c>
       <c r="S296" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="T296" t="n">
-        <v>1</v>
-      </c>
+        <v>12.8</v>
+      </c>
+      <c r="T296"/>
       <c r="U296" t="n">
-        <v>54.1</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="297">
@@ -16748,49 +16740,31 @@
         <v>34</v>
       </c>
       <c r="F297" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G297" t="n">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="H297"/>
       <c r="I297"/>
-      <c r="J297" t="n">
-        <v>28</v>
-      </c>
+      <c r="J297"/>
       <c r="K297" t="s">
         <v>74</v>
       </c>
       <c r="L297" t="s">
         <v>25</v>
       </c>
-      <c r="M297" t="n">
-        <v>40</v>
-      </c>
-      <c r="N297" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O297" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="P297" t="n">
-        <v>42.91</v>
-      </c>
-      <c r="Q297" t="n">
-        <v>65.66</v>
-      </c>
+      <c r="M297"/>
+      <c r="N297"/>
+      <c r="O297"/>
+      <c r="P297"/>
+      <c r="Q297"/>
       <c r="R297" t="n">
-        <v>1577.8</v>
-      </c>
-      <c r="S297" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T297" t="n">
-        <v>1</v>
-      </c>
-      <c r="U297" t="n">
-        <v>56</v>
-      </c>
+        <v>1763.3</v>
+      </c>
+      <c r="S297"/>
+      <c r="T297"/>
+      <c r="U297"/>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -16803,46 +16777,54 @@
         <v>2021</v>
       </c>
       <c r="D298" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E298" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G298" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="H298"/>
       <c r="I298"/>
-      <c r="J298"/>
+      <c r="J298" t="n">
+        <v>28</v>
+      </c>
       <c r="K298" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L298" t="s">
         <v>25</v>
       </c>
-      <c r="M298"/>
-      <c r="N298"/>
+      <c r="M298" t="n">
+        <v>42</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O298" t="n">
-        <v>22.51</v>
+        <v>21.51</v>
       </c>
       <c r="P298" t="n">
-        <v>42.85</v>
+        <v>44.99</v>
       </c>
       <c r="Q298" t="n">
-        <v>65.36</v>
+        <v>66.5</v>
       </c>
       <c r="R298" t="n">
-        <v>1727.5</v>
+        <v>1177.3</v>
       </c>
       <c r="S298" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T298"/>
+        <v>13.8</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1</v>
+      </c>
       <c r="U298" t="n">
-        <v>56.8</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="299">
@@ -16856,37 +16838,55 @@
         <v>2021</v>
       </c>
       <c r="D299" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E299" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F299" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G299" t="n">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="H299"/>
       <c r="I299"/>
-      <c r="J299"/>
+      <c r="J299" t="n">
+        <v>28</v>
+      </c>
       <c r="K299" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L299" t="s">
         <v>25</v>
       </c>
-      <c r="M299"/>
-      <c r="N299"/>
-      <c r="O299"/>
-      <c r="P299"/>
-      <c r="Q299"/>
+      <c r="M299" t="n">
+        <v>38</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O299" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="P299" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>67.07</v>
+      </c>
       <c r="R299" t="n">
-        <v>1763.3</v>
-      </c>
-      <c r="S299"/>
-      <c r="T299"/>
-      <c r="U299"/>
+        <v>1666.6</v>
+      </c>
+      <c r="S299" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1</v>
+      </c>
+      <c r="U299" t="n">
+        <v>56.9</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -16905,48 +16905,40 @@
         <v>35</v>
       </c>
       <c r="F300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G300" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="H300"/>
       <c r="I300"/>
-      <c r="J300" t="n">
-        <v>28</v>
-      </c>
+      <c r="J300"/>
       <c r="K300" t="s">
         <v>73</v>
       </c>
       <c r="L300" t="s">
         <v>25</v>
       </c>
-      <c r="M300" t="n">
-        <v>42</v>
-      </c>
-      <c r="N300" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M300"/>
+      <c r="N300"/>
       <c r="O300" t="n">
-        <v>21.51</v>
+        <v>22.76</v>
       </c>
       <c r="P300" t="n">
-        <v>44.99</v>
+        <v>44.43</v>
       </c>
       <c r="Q300" t="n">
-        <v>66.5</v>
+        <v>67.19</v>
       </c>
       <c r="R300" t="n">
-        <v>1177.3</v>
+        <v>1702.2</v>
       </c>
       <c r="S300" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="T300" t="n">
-        <v>1</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="T300"/>
       <c r="U300" t="n">
-        <v>53.3</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="301">
@@ -16966,49 +16958,31 @@
         <v>35</v>
       </c>
       <c r="F301" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G301" t="n">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="H301"/>
       <c r="I301"/>
-      <c r="J301" t="n">
-        <v>28</v>
-      </c>
+      <c r="J301"/>
       <c r="K301" t="s">
         <v>73</v>
       </c>
       <c r="L301" t="s">
         <v>25</v>
       </c>
-      <c r="M301" t="n">
-        <v>38</v>
-      </c>
-      <c r="N301" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O301" t="n">
-        <v>22.31</v>
-      </c>
-      <c r="P301" t="n">
-        <v>44.76</v>
-      </c>
-      <c r="Q301" t="n">
-        <v>67.07</v>
-      </c>
+      <c r="M301"/>
+      <c r="N301"/>
+      <c r="O301"/>
+      <c r="P301"/>
+      <c r="Q301"/>
       <c r="R301" t="n">
-        <v>1666.6</v>
-      </c>
-      <c r="S301" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T301" t="n">
-        <v>1</v>
-      </c>
-      <c r="U301" t="n">
-        <v>56.9</v>
-      </c>
+        <v>1467.9</v>
+      </c>
+      <c r="S301"/>
+      <c r="T301"/>
+      <c r="U301"/>
     </row>
     <row r="302">
       <c r="A302" t="s">
@@ -17021,46 +16995,54 @@
         <v>2021</v>
       </c>
       <c r="D302" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E302" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F302" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G302" t="n">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H302"/>
       <c r="I302"/>
-      <c r="J302"/>
+      <c r="J302" t="n">
+        <v>23</v>
+      </c>
       <c r="K302" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L302" t="s">
         <v>25</v>
       </c>
-      <c r="M302"/>
-      <c r="N302"/>
+      <c r="M302" t="n">
+        <v>48</v>
+      </c>
+      <c r="N302" t="n">
+        <v>2</v>
+      </c>
       <c r="O302" t="n">
-        <v>22.76</v>
+        <v>21.91</v>
       </c>
       <c r="P302" t="n">
-        <v>44.43</v>
+        <v>42.62</v>
       </c>
       <c r="Q302" t="n">
-        <v>67.19</v>
+        <v>64.53</v>
       </c>
       <c r="R302" t="n">
-        <v>1702.2</v>
+        <v>1975</v>
       </c>
       <c r="S302" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T302"/>
+        <v>14.3</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1</v>
+      </c>
       <c r="U302" t="n">
-        <v>57.1</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="303">
@@ -17074,37 +17056,55 @@
         <v>2021</v>
       </c>
       <c r="D303" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E303" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G303" t="n">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="H303"/>
       <c r="I303"/>
-      <c r="J303"/>
+      <c r="J303" t="n">
+        <v>24</v>
+      </c>
       <c r="K303" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L303" t="s">
         <v>25</v>
       </c>
-      <c r="M303"/>
-      <c r="N303"/>
-      <c r="O303"/>
-      <c r="P303"/>
-      <c r="Q303"/>
+      <c r="M303" t="n">
+        <v>40</v>
+      </c>
+      <c r="N303" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O303" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="P303" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>65.26</v>
+      </c>
       <c r="R303" t="n">
-        <v>1467.9</v>
-      </c>
-      <c r="S303"/>
-      <c r="T303"/>
-      <c r="U303"/>
+        <v>2298.2</v>
+      </c>
+      <c r="S303" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1</v>
+      </c>
+      <c r="U303" t="n">
+        <v>57.6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -17123,48 +17123,40 @@
         <v>36</v>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G304" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H304"/>
       <c r="I304"/>
-      <c r="J304" t="n">
-        <v>23</v>
-      </c>
+      <c r="J304"/>
       <c r="K304" t="s">
         <v>74</v>
       </c>
       <c r="L304" t="s">
         <v>25</v>
       </c>
-      <c r="M304" t="n">
-        <v>48</v>
-      </c>
-      <c r="N304" t="n">
-        <v>2</v>
-      </c>
+      <c r="M304"/>
+      <c r="N304"/>
       <c r="O304" t="n">
-        <v>21.91</v>
+        <v>21.25</v>
       </c>
       <c r="P304" t="n">
-        <v>42.62</v>
+        <v>43.74</v>
       </c>
       <c r="Q304" t="n">
-        <v>64.53</v>
+        <v>64.99</v>
       </c>
       <c r="R304" t="n">
-        <v>1975</v>
+        <v>2185.5</v>
       </c>
       <c r="S304" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="T304" t="n">
-        <v>1</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="T304"/>
       <c r="U304" t="n">
-        <v>58.2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="305">
@@ -17184,49 +17176,31 @@
         <v>36</v>
       </c>
       <c r="F305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G305" t="n">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="H305"/>
       <c r="I305"/>
-      <c r="J305" t="n">
-        <v>24</v>
-      </c>
+      <c r="J305"/>
       <c r="K305" t="s">
         <v>74</v>
       </c>
       <c r="L305" t="s">
         <v>25</v>
       </c>
-      <c r="M305" t="n">
-        <v>40</v>
-      </c>
-      <c r="N305" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O305" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="P305" t="n">
-        <v>43.73</v>
-      </c>
-      <c r="Q305" t="n">
-        <v>65.26</v>
-      </c>
+      <c r="M305"/>
+      <c r="N305"/>
+      <c r="O305"/>
+      <c r="P305"/>
+      <c r="Q305"/>
       <c r="R305" t="n">
-        <v>2298.2</v>
-      </c>
-      <c r="S305" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T305" t="n">
-        <v>1</v>
-      </c>
-      <c r="U305" t="n">
-        <v>57.6</v>
-      </c>
+        <v>1934.9</v>
+      </c>
+      <c r="S305"/>
+      <c r="T305"/>
+      <c r="U305"/>
     </row>
     <row r="306">
       <c r="A306" t="s">
@@ -17239,46 +17213,54 @@
         <v>2021</v>
       </c>
       <c r="D306" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E306" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G306" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="H306"/>
       <c r="I306"/>
-      <c r="J306"/>
+      <c r="J306" t="n">
+        <v>29</v>
+      </c>
       <c r="K306" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L306" t="s">
         <v>25</v>
       </c>
-      <c r="M306"/>
-      <c r="N306"/>
+      <c r="M306" t="n">
+        <v>34</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O306" t="n">
-        <v>21.25</v>
+        <v>24.34</v>
       </c>
       <c r="P306" t="n">
-        <v>43.74</v>
+        <v>41.66</v>
       </c>
       <c r="Q306" t="n">
-        <v>64.99</v>
+        <v>66</v>
       </c>
       <c r="R306" t="n">
-        <v>2185.5</v>
+        <v>1454.9</v>
       </c>
       <c r="S306" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T306"/>
+        <v>13</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U306" t="n">
-        <v>58</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="307">
@@ -17292,37 +17274,55 @@
         <v>2021</v>
       </c>
       <c r="D307" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E307" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F307" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G307" t="n">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="H307"/>
       <c r="I307"/>
-      <c r="J307"/>
+      <c r="J307" t="n">
+        <v>29</v>
+      </c>
       <c r="K307" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L307" t="s">
         <v>25</v>
       </c>
-      <c r="M307"/>
-      <c r="N307"/>
-      <c r="O307"/>
-      <c r="P307"/>
-      <c r="Q307"/>
+      <c r="M307" t="n">
+        <v>37</v>
+      </c>
+      <c r="N307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O307" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="P307" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>66.5</v>
+      </c>
       <c r="R307" t="n">
-        <v>1934.9</v>
-      </c>
-      <c r="S307"/>
-      <c r="T307"/>
-      <c r="U307"/>
+        <v>2214.7</v>
+      </c>
+      <c r="S307" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1</v>
+      </c>
+      <c r="U307" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -17341,46 +17341,38 @@
         <v>37</v>
       </c>
       <c r="F308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G308" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H308"/>
       <c r="I308"/>
-      <c r="J308" t="n">
-        <v>29</v>
-      </c>
+      <c r="J308"/>
       <c r="K308" t="s">
         <v>73</v>
       </c>
       <c r="L308" t="s">
         <v>25</v>
       </c>
-      <c r="M308" t="n">
-        <v>34</v>
-      </c>
-      <c r="N308" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M308"/>
+      <c r="N308"/>
       <c r="O308" t="n">
-        <v>24.34</v>
+        <v>24.69</v>
       </c>
       <c r="P308" t="n">
-        <v>41.66</v>
+        <v>41.76</v>
       </c>
       <c r="Q308" t="n">
-        <v>66</v>
+        <v>66.45</v>
       </c>
       <c r="R308" t="n">
-        <v>1454.9</v>
+        <v>1677.3</v>
       </c>
       <c r="S308" t="n">
-        <v>13</v>
-      </c>
-      <c r="T308" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.2</v>
+      </c>
+      <c r="T308"/>
       <c r="U308" t="n">
         <v>55.8</v>
       </c>
@@ -17402,49 +17394,31 @@
         <v>37</v>
       </c>
       <c r="F309" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G309" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="H309"/>
       <c r="I309"/>
-      <c r="J309" t="n">
-        <v>29</v>
-      </c>
+      <c r="J309"/>
       <c r="K309" t="s">
         <v>73</v>
       </c>
       <c r="L309" t="s">
         <v>25</v>
       </c>
-      <c r="M309" t="n">
-        <v>37</v>
-      </c>
-      <c r="N309" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O309" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="P309" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="Q309" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="M309"/>
+      <c r="N309"/>
+      <c r="O309"/>
+      <c r="P309"/>
+      <c r="Q309"/>
       <c r="R309" t="n">
-        <v>2214.7</v>
-      </c>
-      <c r="S309" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T309" t="n">
-        <v>1</v>
-      </c>
-      <c r="U309" t="n">
-        <v>55.9</v>
-      </c>
+        <v>1945.7</v>
+      </c>
+      <c r="S309"/>
+      <c r="T309"/>
+      <c r="U309"/>
     </row>
     <row r="310">
       <c r="A310" t="s">
@@ -17457,46 +17431,54 @@
         <v>2021</v>
       </c>
       <c r="D310" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E310" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F310" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G310" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="H310"/>
       <c r="I310"/>
-      <c r="J310"/>
+      <c r="J310" t="n">
+        <v>20</v>
+      </c>
       <c r="K310" t="s">
         <v>73</v>
       </c>
       <c r="L310" t="s">
-        <v>25</v>
-      </c>
-      <c r="M310"/>
-      <c r="N310"/>
+        <v>32</v>
+      </c>
+      <c r="M310" t="n">
+        <v>30</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O310" t="n">
-        <v>24.69</v>
+        <v>21.59</v>
       </c>
       <c r="P310" t="n">
-        <v>41.76</v>
+        <v>42.88</v>
       </c>
       <c r="Q310" t="n">
-        <v>66.45</v>
+        <v>64.47</v>
       </c>
       <c r="R310" t="n">
-        <v>1677.3</v>
+        <v>2209.9</v>
       </c>
       <c r="S310" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T310"/>
+        <v>15.4</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1</v>
+      </c>
       <c r="U310" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="311">
@@ -17510,37 +17492,55 @@
         <v>2021</v>
       </c>
       <c r="D311" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E311" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F311" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G311" t="n">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="H311"/>
       <c r="I311"/>
-      <c r="J311"/>
+      <c r="J311" t="n">
+        <v>16</v>
+      </c>
       <c r="K311" t="s">
         <v>73</v>
       </c>
       <c r="L311" t="s">
-        <v>25</v>
-      </c>
-      <c r="M311"/>
-      <c r="N311"/>
-      <c r="O311"/>
-      <c r="P311"/>
-      <c r="Q311"/>
+        <v>32</v>
+      </c>
+      <c r="M311" t="n">
+        <v>26</v>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+      <c r="O311" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="P311" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>63.79</v>
+      </c>
       <c r="R311" t="n">
-        <v>1945.7</v>
-      </c>
-      <c r="S311"/>
-      <c r="T311"/>
-      <c r="U311"/>
+        <v>1771.6</v>
+      </c>
+      <c r="S311" t="n">
+        <v>14</v>
+      </c>
+      <c r="T311" t="n">
+        <v>1</v>
+      </c>
+      <c r="U311" t="n">
+        <v>56.1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -17559,48 +17559,40 @@
         <v>38</v>
       </c>
       <c r="F312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G312" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="H312"/>
       <c r="I312"/>
-      <c r="J312" t="n">
-        <v>20</v>
-      </c>
+      <c r="J312"/>
       <c r="K312" t="s">
         <v>73</v>
       </c>
       <c r="L312" t="s">
         <v>32</v>
       </c>
-      <c r="M312" t="n">
-        <v>30</v>
-      </c>
-      <c r="N312" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M312"/>
+      <c r="N312"/>
       <c r="O312" t="n">
-        <v>21.59</v>
+        <v>22.56</v>
       </c>
       <c r="P312" t="n">
-        <v>42.88</v>
+        <v>42</v>
       </c>
       <c r="Q312" t="n">
-        <v>64.47</v>
+        <v>64.56</v>
       </c>
       <c r="R312" t="n">
-        <v>2209.9</v>
+        <v>2459.4</v>
       </c>
       <c r="S312" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T312" t="n">
-        <v>1</v>
-      </c>
+        <v>14.7</v>
+      </c>
+      <c r="T312"/>
       <c r="U312" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="313">
@@ -17620,49 +17612,31 @@
         <v>38</v>
       </c>
       <c r="F313" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G313" t="n">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="H313"/>
       <c r="I313"/>
-      <c r="J313" t="n">
-        <v>16</v>
-      </c>
+      <c r="J313"/>
       <c r="K313" t="s">
         <v>73</v>
       </c>
       <c r="L313" t="s">
         <v>32</v>
       </c>
-      <c r="M313" t="n">
-        <v>26</v>
-      </c>
-      <c r="N313" t="n">
-        <v>1</v>
-      </c>
-      <c r="O313" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="P313" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="Q313" t="n">
-        <v>63.79</v>
-      </c>
+      <c r="M313"/>
+      <c r="N313"/>
+      <c r="O313"/>
+      <c r="P313"/>
+      <c r="Q313"/>
       <c r="R313" t="n">
-        <v>1771.6</v>
-      </c>
-      <c r="S313" t="n">
-        <v>14</v>
-      </c>
-      <c r="T313" t="n">
-        <v>1</v>
-      </c>
-      <c r="U313" t="n">
-        <v>56.1</v>
-      </c>
+        <v>2348.1</v>
+      </c>
+      <c r="S313"/>
+      <c r="T313"/>
+      <c r="U313"/>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -17675,46 +17649,54 @@
         <v>2021</v>
       </c>
       <c r="D314" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E314" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F314" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G314" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="H314"/>
       <c r="I314"/>
-      <c r="J314"/>
+      <c r="J314" t="n">
+        <v>20</v>
+      </c>
       <c r="K314" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L314" t="s">
         <v>32</v>
       </c>
-      <c r="M314"/>
-      <c r="N314"/>
+      <c r="M314" t="n">
+        <v>28</v>
+      </c>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
       <c r="O314" t="n">
-        <v>22.56</v>
+        <v>22.62</v>
       </c>
       <c r="P314" t="n">
-        <v>42</v>
+        <v>40.76</v>
       </c>
       <c r="Q314" t="n">
-        <v>64.56</v>
+        <v>63.38</v>
       </c>
       <c r="R314" t="n">
-        <v>2459.4</v>
+        <v>1943.1</v>
       </c>
       <c r="S314" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="T314"/>
+        <v>12.1</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1</v>
+      </c>
       <c r="U314" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="315">
@@ -17728,37 +17710,55 @@
         <v>2021</v>
       </c>
       <c r="D315" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E315" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G315" t="n">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="H315"/>
       <c r="I315"/>
-      <c r="J315"/>
+      <c r="J315" t="n">
+        <v>19</v>
+      </c>
       <c r="K315" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L315" t="s">
         <v>32</v>
       </c>
-      <c r="M315"/>
-      <c r="N315"/>
-      <c r="O315"/>
-      <c r="P315"/>
-      <c r="Q315"/>
+      <c r="M315" t="n">
+        <v>25</v>
+      </c>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+      <c r="O315" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="P315" t="n">
+        <v>40.66</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>63.52</v>
+      </c>
       <c r="R315" t="n">
-        <v>2348.1</v>
-      </c>
-      <c r="S315"/>
-      <c r="T315"/>
-      <c r="U315"/>
+        <v>2309.3</v>
+      </c>
+      <c r="S315" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1</v>
+      </c>
+      <c r="U315" t="n">
+        <v>55.1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -17777,48 +17777,40 @@
         <v>39</v>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H316"/>
       <c r="I316"/>
-      <c r="J316" t="n">
-        <v>20</v>
-      </c>
+      <c r="J316"/>
       <c r="K316" t="s">
         <v>74</v>
       </c>
       <c r="L316" t="s">
         <v>32</v>
       </c>
-      <c r="M316" t="n">
-        <v>28</v>
-      </c>
-      <c r="N316" t="n">
-        <v>1</v>
-      </c>
+      <c r="M316"/>
+      <c r="N316"/>
       <c r="O316" t="n">
-        <v>22.62</v>
+        <v>23.22</v>
       </c>
       <c r="P316" t="n">
-        <v>40.76</v>
+        <v>40.04</v>
       </c>
       <c r="Q316" t="n">
-        <v>63.38</v>
+        <v>63.26</v>
       </c>
       <c r="R316" t="n">
-        <v>1943.1</v>
+        <v>2182.8</v>
       </c>
       <c r="S316" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="T316" t="n">
-        <v>1</v>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="T316"/>
       <c r="U316" t="n">
-        <v>56.3</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="317">
@@ -17838,49 +17830,31 @@
         <v>39</v>
       </c>
       <c r="F317" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G317" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="H317"/>
       <c r="I317"/>
-      <c r="J317" t="n">
-        <v>19</v>
-      </c>
+      <c r="J317"/>
       <c r="K317" t="s">
         <v>74</v>
       </c>
       <c r="L317" t="s">
         <v>32</v>
       </c>
-      <c r="M317" t="n">
-        <v>25</v>
-      </c>
-      <c r="N317" t="n">
-        <v>1</v>
-      </c>
-      <c r="O317" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="P317" t="n">
-        <v>40.66</v>
-      </c>
-      <c r="Q317" t="n">
-        <v>63.52</v>
-      </c>
+      <c r="M317"/>
+      <c r="N317"/>
+      <c r="O317"/>
+      <c r="P317"/>
+      <c r="Q317"/>
       <c r="R317" t="n">
-        <v>2309.3</v>
-      </c>
-      <c r="S317" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="T317" t="n">
-        <v>1</v>
-      </c>
-      <c r="U317" t="n">
-        <v>55.1</v>
-      </c>
+        <v>2254.4</v>
+      </c>
+      <c r="S317"/>
+      <c r="T317"/>
+      <c r="U317"/>
     </row>
     <row r="318">
       <c r="A318" t="s">
@@ -17893,46 +17867,54 @@
         <v>2021</v>
       </c>
       <c r="D318" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E318" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G318" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H318"/>
       <c r="I318"/>
-      <c r="J318"/>
+      <c r="J318" t="n">
+        <v>18</v>
+      </c>
       <c r="K318" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L318" t="s">
         <v>32</v>
       </c>
-      <c r="M318"/>
-      <c r="N318"/>
+      <c r="M318" t="n">
+        <v>28</v>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
       <c r="O318" t="n">
-        <v>23.22</v>
+        <v>23.13</v>
       </c>
       <c r="P318" t="n">
-        <v>40.04</v>
+        <v>41.15</v>
       </c>
       <c r="Q318" t="n">
-        <v>63.26</v>
+        <v>64.28</v>
       </c>
       <c r="R318" t="n">
-        <v>2182.8</v>
+        <v>1863.8</v>
       </c>
       <c r="S318" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="T318"/>
+        <v>16.4</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1</v>
+      </c>
       <c r="U318" t="n">
-        <v>57.4</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="319">
@@ -17946,37 +17928,55 @@
         <v>2021</v>
       </c>
       <c r="D319" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E319" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F319" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G319" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="H319"/>
       <c r="I319"/>
-      <c r="J319"/>
+      <c r="J319" t="n">
+        <v>18</v>
+      </c>
       <c r="K319" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L319" t="s">
         <v>32</v>
       </c>
-      <c r="M319"/>
-      <c r="N319"/>
-      <c r="O319"/>
-      <c r="P319"/>
-      <c r="Q319"/>
+      <c r="M319" t="n">
+        <v>26</v>
+      </c>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+      <c r="O319" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="P319" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>63.49</v>
+      </c>
       <c r="R319" t="n">
-        <v>2254.4</v>
-      </c>
-      <c r="S319"/>
-      <c r="T319"/>
-      <c r="U319"/>
+        <v>1422.8</v>
+      </c>
+      <c r="S319" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1</v>
+      </c>
+      <c r="U319" t="n">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -17995,48 +17995,40 @@
         <v>40</v>
       </c>
       <c r="F320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G320" t="n">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="H320"/>
       <c r="I320"/>
-      <c r="J320" t="n">
-        <v>18</v>
-      </c>
+      <c r="J320"/>
       <c r="K320" t="s">
         <v>73</v>
       </c>
       <c r="L320" t="s">
         <v>32</v>
       </c>
-      <c r="M320" t="n">
-        <v>28</v>
-      </c>
-      <c r="N320" t="n">
-        <v>1</v>
-      </c>
+      <c r="M320"/>
+      <c r="N320"/>
       <c r="O320" t="n">
-        <v>23.13</v>
+        <v>23.84</v>
       </c>
       <c r="P320" t="n">
-        <v>41.15</v>
+        <v>40.12</v>
       </c>
       <c r="Q320" t="n">
-        <v>64.28</v>
+        <v>63.96</v>
       </c>
       <c r="R320" t="n">
-        <v>1863.8</v>
+        <v>2474.2</v>
       </c>
       <c r="S320" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="T320" t="n">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="T320"/>
       <c r="U320" t="n">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="321">
@@ -18056,145 +18048,31 @@
         <v>40</v>
       </c>
       <c r="F321" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G321" t="n">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="H321"/>
       <c r="I321"/>
-      <c r="J321" t="n">
-        <v>18</v>
-      </c>
+      <c r="J321"/>
       <c r="K321" t="s">
         <v>73</v>
       </c>
       <c r="L321" t="s">
         <v>32</v>
       </c>
-      <c r="M321" t="n">
-        <v>26</v>
-      </c>
-      <c r="N321" t="n">
-        <v>1</v>
-      </c>
-      <c r="O321" t="n">
-        <v>22.38</v>
-      </c>
-      <c r="P321" t="n">
-        <v>41.11</v>
-      </c>
-      <c r="Q321" t="n">
-        <v>63.49</v>
-      </c>
+      <c r="M321"/>
+      <c r="N321"/>
+      <c r="O321"/>
+      <c r="P321"/>
+      <c r="Q321"/>
       <c r="R321" t="n">
-        <v>1422.8</v>
-      </c>
-      <c r="S321" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="T321" t="n">
-        <v>1</v>
-      </c>
-      <c r="U321" t="n">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>21</v>
-      </c>
-      <c r="B322" t="s">
-        <v>72</v>
-      </c>
-      <c r="C322" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D322" t="s">
-        <v>71</v>
-      </c>
-      <c r="E322" t="n">
-        <v>40</v>
-      </c>
-      <c r="F322" t="n">
-        <v>3</v>
-      </c>
-      <c r="G322" t="n">
-        <v>117</v>
-      </c>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322" t="s">
-        <v>73</v>
-      </c>
-      <c r="L322" t="s">
-        <v>32</v>
-      </c>
-      <c r="M322"/>
-      <c r="N322"/>
-      <c r="O322" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="P322" t="n">
-        <v>40.12</v>
-      </c>
-      <c r="Q322" t="n">
-        <v>63.96</v>
-      </c>
-      <c r="R322" t="n">
-        <v>2474.2</v>
-      </c>
-      <c r="S322" t="n">
-        <v>17</v>
-      </c>
-      <c r="T322"/>
-      <c r="U322" t="n">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>21</v>
-      </c>
-      <c r="B323" t="s">
-        <v>72</v>
-      </c>
-      <c r="C323" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D323" t="s">
-        <v>71</v>
-      </c>
-      <c r="E323" t="n">
-        <v>40</v>
-      </c>
-      <c r="F323" t="n">
-        <v>4</v>
-      </c>
-      <c r="G323" t="n">
-        <v>129</v>
-      </c>
-      <c r="H323"/>
-      <c r="I323"/>
-      <c r="J323"/>
-      <c r="K323" t="s">
-        <v>73</v>
-      </c>
-      <c r="L323" t="s">
-        <v>32</v>
-      </c>
-      <c r="M323"/>
-      <c r="N323"/>
-      <c r="O323"/>
-      <c r="P323"/>
-      <c r="Q323"/>
-      <c r="R323" t="n">
         <v>2283.7</v>
       </c>
-      <c r="S323"/>
-      <c r="T323"/>
-      <c r="U323"/>
+      <c r="S321"/>
+      <c r="T321"/>
+      <c r="U321"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
